--- a/Datasets/Datasets.xlsx
+++ b/Datasets/Datasets.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K.Kirika\Documents\GitHub\Project3-Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rogier\Documenten\Project3-Data\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="403">
   <si>
     <t>;;% slachtofferschap;2006;2007;2008;2009;2011</t>
   </si>
@@ -1146,12 +1146,99 @@
   </si>
   <si>
     <t>8;12</t>
+  </si>
+  <si>
+    <t>LOLOOLOL</t>
+  </si>
+  <si>
+    <t>Feijenoord</t>
+  </si>
+  <si>
+    <t>Diefstal</t>
+  </si>
+  <si>
+    <t>buurtprobleem fietsendiefstal</t>
+  </si>
+  <si>
+    <t>% vaak</t>
+  </si>
+  <si>
+    <t>Kop van Zuid Entrepot</t>
+  </si>
+  <si>
+    <t>Vreewijk</t>
+  </si>
+  <si>
+    <t>Bloemhof</t>
+  </si>
+  <si>
+    <t>Hillesluis</t>
+  </si>
+  <si>
+    <t>Katendrecht</t>
+  </si>
+  <si>
+    <t>Afrikaanderwijk</t>
+  </si>
+  <si>
+    <t>Noordereiland</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>buurtprobleem diefstal uit de auto</t>
+  </si>
+  <si>
+    <t>Drugsoverlast</t>
+  </si>
+  <si>
+    <t>buurtprobleem drugsoverlast</t>
+  </si>
+  <si>
+    <t>2.1.1 meldingen drugsoverlast</t>
+  </si>
+  <si>
+    <t>absoluut</t>
+  </si>
+  <si>
+    <t>genormaliseerd</t>
+  </si>
+  <si>
+    <t>Geweld</t>
+  </si>
+  <si>
+    <t>buurtprobleem bedreiging</t>
+  </si>
+  <si>
+    <t>buurtprobleem geweldsdelicten</t>
+  </si>
+  <si>
+    <t>Vandalisme</t>
+  </si>
+  <si>
+    <t>buurtprobleem bekladding muren/gebouwen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buurtprobleem vernieling telefooncellen/bus- of tramhokjes </t>
+  </si>
+  <si>
+    <t>slachtofferschap overige beschadiging/vernieling</t>
+  </si>
+  <si>
+    <t>% slachtofferschap</t>
+  </si>
+  <si>
+    <t>2.2.1 meldingen vernieling cq zaakbeschadiging</t>
+  </si>
+  <si>
+    <t>meldingen kleine buitenbranden</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1185,7 +1272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1463,15 +1550,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60:N93"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A262" sqref="A262"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>92</v>
       </c>
@@ -1479,7 +1566,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -1487,7 +1574,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -1495,7 +1582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -1503,7 +1590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -1538,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -1567,7 +1654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -1605,7 +1692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>102</v>
       </c>
@@ -1640,7 +1727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -1678,7 +1765,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>110</v>
       </c>
@@ -1713,7 +1800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -1745,7 +1832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -1780,7 +1867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -1800,7 +1887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -1817,7 +1904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1825,7 +1912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1833,7 +1920,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -1865,7 +1952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>167</v>
       </c>
@@ -1900,7 +1987,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -1929,7 +2016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>174</v>
       </c>
@@ -1967,7 +2054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -2005,7 +2092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>179</v>
       </c>
@@ -2034,7 +2121,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>162</v>
       </c>
@@ -2072,7 +2159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>182</v>
       </c>
@@ -2110,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>185</v>
       </c>
@@ -2130,7 +2217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -2150,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -2158,7 +2245,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>67</v>
       </c>
@@ -2166,7 +2253,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -2174,7 +2261,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>140</v>
       </c>
@@ -2212,7 +2299,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -2250,7 +2337,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>145</v>
       </c>
@@ -2288,7 +2375,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>149</v>
       </c>
@@ -2317,7 +2404,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>151</v>
       </c>
@@ -2355,7 +2442,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>154</v>
       </c>
@@ -2393,7 +2480,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>157</v>
       </c>
@@ -2428,7 +2515,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>160</v>
       </c>
@@ -2466,7 +2553,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>162</v>
       </c>
@@ -2486,7 +2573,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -2506,7 +2593,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>241</v>
       </c>
@@ -2514,7 +2601,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -2522,7 +2609,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>242</v>
       </c>
@@ -2554,7 +2641,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>243</v>
       </c>
@@ -2586,7 +2673,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>245</v>
       </c>
@@ -2621,7 +2708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>247</v>
       </c>
@@ -2650,7 +2737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>248</v>
       </c>
@@ -2685,7 +2772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>251</v>
       </c>
@@ -2720,7 +2807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>252</v>
       </c>
@@ -2752,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>254</v>
       </c>
@@ -2787,7 +2874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>256</v>
       </c>
@@ -2807,7 +2894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>257</v>
       </c>
@@ -2827,22 +2914,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I60" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>32</v>
       </c>
@@ -2850,7 +2937,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>274</v>
       </c>
@@ -2873,7 +2960,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>275</v>
       </c>
@@ -2908,7 +2995,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -2946,7 +3033,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>278</v>
       </c>
@@ -2978,7 +3065,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>282</v>
       </c>
@@ -3013,7 +3100,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>284</v>
       </c>
@@ -3051,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>287</v>
       </c>
@@ -3083,7 +3170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>289</v>
       </c>
@@ -3115,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -3150,7 +3237,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>292</v>
       </c>
@@ -3167,12 +3254,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I73" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>294</v>
       </c>
@@ -3180,7 +3267,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>32</v>
       </c>
@@ -3197,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>295</v>
       </c>
@@ -3235,7 +3322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>297</v>
       </c>
@@ -3270,7 +3357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>299</v>
       </c>
@@ -3308,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>300</v>
       </c>
@@ -3337,7 +3424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>302</v>
       </c>
@@ -3375,7 +3462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>303</v>
       </c>
@@ -3413,7 +3500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>304</v>
       </c>
@@ -3451,7 +3538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>308</v>
       </c>
@@ -3471,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>185</v>
       </c>
@@ -3494,7 +3581,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>64</v>
       </c>
@@ -3517,7 +3604,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I86" t="s">
         <v>361</v>
       </c>
@@ -3528,7 +3615,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>314</v>
       </c>
@@ -3551,7 +3638,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>0</v>
       </c>
@@ -3574,7 +3661,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>315</v>
       </c>
@@ -3600,7 +3687,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>317</v>
       </c>
@@ -3638,7 +3725,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>318</v>
       </c>
@@ -3670,7 +3757,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>320</v>
       </c>
@@ -3708,7 +3795,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>323</v>
       </c>
@@ -3743,7 +3830,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>125</v>
       </c>
@@ -3763,7 +3850,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>157</v>
       </c>
@@ -3780,7 +3867,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>136</v>
       </c>
@@ -3800,7 +3887,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>331</v>
       </c>
@@ -3814,7 +3901,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -3832,6 +3919,3024 @@
       </c>
       <c r="F98" t="s">
         <v>334</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C108" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>378</v>
+      </c>
+      <c r="D109">
+        <v>2006</v>
+      </c>
+      <c r="E109">
+        <v>2007</v>
+      </c>
+      <c r="F109">
+        <v>2008</v>
+      </c>
+      <c r="G109">
+        <v>2009</v>
+      </c>
+      <c r="H109">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>379</v>
+      </c>
+      <c r="D110">
+        <v>21.5</v>
+      </c>
+      <c r="E110">
+        <v>17.3</v>
+      </c>
+      <c r="F110">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G110">
+        <v>15</v>
+      </c>
+      <c r="H110">
+        <v>12.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>380</v>
+      </c>
+      <c r="D111">
+        <v>21</v>
+      </c>
+      <c r="E111">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F111">
+        <v>17.2</v>
+      </c>
+      <c r="G111">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="H111">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>381</v>
+      </c>
+      <c r="D112">
+        <v>22.1</v>
+      </c>
+      <c r="E112">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F112">
+        <v>21.9</v>
+      </c>
+      <c r="G112">
+        <v>23.5</v>
+      </c>
+      <c r="H112">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>382</v>
+      </c>
+      <c r="D113">
+        <v>18.3</v>
+      </c>
+      <c r="E113">
+        <v>19.2</v>
+      </c>
+      <c r="F113">
+        <v>22.7</v>
+      </c>
+      <c r="G113">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H113">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C114" t="s">
+        <v>383</v>
+      </c>
+      <c r="D114">
+        <v>22.8</v>
+      </c>
+      <c r="E114">
+        <v>15.9</v>
+      </c>
+      <c r="F114">
+        <v>24.6</v>
+      </c>
+      <c r="G114">
+        <v>10.4</v>
+      </c>
+      <c r="H114">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C115" t="s">
+        <v>384</v>
+      </c>
+      <c r="D115">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E115">
+        <v>14.7</v>
+      </c>
+      <c r="F115">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G115">
+        <v>22.8</v>
+      </c>
+      <c r="H115">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>375</v>
+      </c>
+      <c r="D116">
+        <v>12.6</v>
+      </c>
+      <c r="E116">
+        <v>28.6</v>
+      </c>
+      <c r="F116">
+        <v>21.7</v>
+      </c>
+      <c r="G116">
+        <v>22.5</v>
+      </c>
+      <c r="H116">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>385</v>
+      </c>
+      <c r="D117">
+        <v>21.2</v>
+      </c>
+      <c r="E117">
+        <v>12.4</v>
+      </c>
+      <c r="F117">
+        <v>17.7</v>
+      </c>
+      <c r="G117">
+        <v>20.7</v>
+      </c>
+      <c r="H117">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>375</v>
+      </c>
+      <c r="D118">
+        <v>19.8</v>
+      </c>
+      <c r="E118">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F118">
+        <v>20.6</v>
+      </c>
+      <c r="G118">
+        <v>20.2</v>
+      </c>
+      <c r="H118">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>386</v>
+      </c>
+      <c r="D119">
+        <v>18.7</v>
+      </c>
+      <c r="E119">
+        <v>18.2</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119">
+        <v>18.5</v>
+      </c>
+      <c r="H119">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>378</v>
+      </c>
+      <c r="D122">
+        <v>2006</v>
+      </c>
+      <c r="E122">
+        <v>2007</v>
+      </c>
+      <c r="F122">
+        <v>2008</v>
+      </c>
+      <c r="G122">
+        <v>2009</v>
+      </c>
+      <c r="H122">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>379</v>
+      </c>
+      <c r="D123">
+        <v>23.7</v>
+      </c>
+      <c r="E123">
+        <v>21.4</v>
+      </c>
+      <c r="F123">
+        <v>24.3</v>
+      </c>
+      <c r="G123">
+        <v>15.2</v>
+      </c>
+      <c r="H123">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>380</v>
+      </c>
+      <c r="D124">
+        <v>21.3</v>
+      </c>
+      <c r="E124">
+        <v>20.6</v>
+      </c>
+      <c r="F124">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="G124">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="H124">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>381</v>
+      </c>
+      <c r="D125">
+        <v>27</v>
+      </c>
+      <c r="E125">
+        <v>25.5</v>
+      </c>
+      <c r="F125">
+        <v>24.3</v>
+      </c>
+      <c r="G125">
+        <v>21.3</v>
+      </c>
+      <c r="H125">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>382</v>
+      </c>
+      <c r="D126">
+        <v>19.2</v>
+      </c>
+      <c r="E126">
+        <v>19.8</v>
+      </c>
+      <c r="F126">
+        <v>22.2</v>
+      </c>
+      <c r="G126">
+        <v>16.7</v>
+      </c>
+      <c r="H126">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C127" t="s">
+        <v>383</v>
+      </c>
+      <c r="D127">
+        <v>22.6</v>
+      </c>
+      <c r="E127">
+        <v>11.9</v>
+      </c>
+      <c r="F127">
+        <v>15.6</v>
+      </c>
+      <c r="G127">
+        <v>14.7</v>
+      </c>
+      <c r="H127">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C128" t="s">
+        <v>384</v>
+      </c>
+      <c r="D128">
+        <v>21.4</v>
+      </c>
+      <c r="E128">
+        <v>18</v>
+      </c>
+      <c r="F128">
+        <v>17</v>
+      </c>
+      <c r="G128">
+        <v>23.3</v>
+      </c>
+      <c r="H128">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C129" t="s">
+        <v>375</v>
+      </c>
+      <c r="D129">
+        <v>13.3</v>
+      </c>
+      <c r="E129">
+        <v>11.4</v>
+      </c>
+      <c r="F129">
+        <v>16.3</v>
+      </c>
+      <c r="G129">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H129">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C130" t="s">
+        <v>385</v>
+      </c>
+      <c r="D130">
+        <v>14.8</v>
+      </c>
+      <c r="E130">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F130">
+        <v>12.5</v>
+      </c>
+      <c r="G130">
+        <v>12.5</v>
+      </c>
+      <c r="H130">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>375</v>
+      </c>
+      <c r="D131">
+        <v>21.2</v>
+      </c>
+      <c r="E131">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F131">
+        <v>19.3</v>
+      </c>
+      <c r="G131">
+        <v>18.7</v>
+      </c>
+      <c r="H131">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>386</v>
+      </c>
+      <c r="D132">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E132">
+        <v>15.8</v>
+      </c>
+      <c r="F132">
+        <v>15.4</v>
+      </c>
+      <c r="G132">
+        <v>15.7</v>
+      </c>
+      <c r="H132">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C136" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C137" t="s">
+        <v>378</v>
+      </c>
+      <c r="D137">
+        <v>2006</v>
+      </c>
+      <c r="E137">
+        <v>2007</v>
+      </c>
+      <c r="F137">
+        <v>2008</v>
+      </c>
+      <c r="G137">
+        <v>2009</v>
+      </c>
+      <c r="H137">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C138" t="s">
+        <v>379</v>
+      </c>
+      <c r="D138">
+        <v>7.4</v>
+      </c>
+      <c r="E138">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F138">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G138">
+        <v>6.3</v>
+      </c>
+      <c r="H138">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C139" t="s">
+        <v>380</v>
+      </c>
+      <c r="D139">
+        <v>8.5</v>
+      </c>
+      <c r="E139">
+        <v>2.7</v>
+      </c>
+      <c r="F139">
+        <v>5.7</v>
+      </c>
+      <c r="G139">
+        <v>6.5</v>
+      </c>
+      <c r="H139">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C140" t="s">
+        <v>381</v>
+      </c>
+      <c r="D140">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E140">
+        <v>16.7</v>
+      </c>
+      <c r="F140">
+        <v>24.6</v>
+      </c>
+      <c r="G140">
+        <v>20.2</v>
+      </c>
+      <c r="H140">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C141" t="s">
+        <v>382</v>
+      </c>
+      <c r="D141">
+        <v>18</v>
+      </c>
+      <c r="E141">
+        <v>17</v>
+      </c>
+      <c r="F141">
+        <v>20.8</v>
+      </c>
+      <c r="G141">
+        <v>23.7</v>
+      </c>
+      <c r="H141">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C142" t="s">
+        <v>383</v>
+      </c>
+      <c r="D142">
+        <v>10.8</v>
+      </c>
+      <c r="E142">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F142">
+        <v>8.6</v>
+      </c>
+      <c r="G142">
+        <v>4.3</v>
+      </c>
+      <c r="H142">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C143" t="s">
+        <v>384</v>
+      </c>
+      <c r="D143">
+        <v>24.8</v>
+      </c>
+      <c r="E143">
+        <v>11.8</v>
+      </c>
+      <c r="F143">
+        <v>21.4</v>
+      </c>
+      <c r="G143">
+        <v>21.4</v>
+      </c>
+      <c r="H143">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>375</v>
+      </c>
+      <c r="D144">
+        <v>4.5</v>
+      </c>
+      <c r="E144">
+        <v>7.8</v>
+      </c>
+      <c r="F144">
+        <v>16</v>
+      </c>
+      <c r="G144">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H144">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="145" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>385</v>
+      </c>
+      <c r="D145">
+        <v>5.5</v>
+      </c>
+      <c r="E145">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F145">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G145">
+        <v>7.1</v>
+      </c>
+      <c r="H145">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="146" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>375</v>
+      </c>
+      <c r="D146">
+        <v>13.4</v>
+      </c>
+      <c r="E146">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F146">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="G146">
+        <v>15.1</v>
+      </c>
+      <c r="H146">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="147" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C147" t="s">
+        <v>386</v>
+      </c>
+      <c r="D147">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E147">
+        <v>6.7</v>
+      </c>
+      <c r="F147">
+        <v>9.9</v>
+      </c>
+      <c r="G147">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H147">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="149" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C149" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="150" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>391</v>
+      </c>
+      <c r="I150" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="151" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C151" t="s">
+        <v>378</v>
+      </c>
+      <c r="D151">
+        <v>2006</v>
+      </c>
+      <c r="E151">
+        <v>2007</v>
+      </c>
+      <c r="F151">
+        <v>2008</v>
+      </c>
+      <c r="G151">
+        <v>2009</v>
+      </c>
+      <c r="H151">
+        <v>2011</v>
+      </c>
+      <c r="I151">
+        <v>2006</v>
+      </c>
+      <c r="J151">
+        <v>2007</v>
+      </c>
+      <c r="K151">
+        <v>2008</v>
+      </c>
+      <c r="L151">
+        <v>2009</v>
+      </c>
+      <c r="M151">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="152" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C152" t="s">
+        <v>379</v>
+      </c>
+      <c r="D152">
+        <v>8</v>
+      </c>
+      <c r="E152">
+        <v>11</v>
+      </c>
+      <c r="F152">
+        <v>6</v>
+      </c>
+      <c r="G152">
+        <v>12</v>
+      </c>
+      <c r="H152">
+        <v>5</v>
+      </c>
+      <c r="I152">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J152">
+        <v>1.5</v>
+      </c>
+      <c r="K152">
+        <v>0.8</v>
+      </c>
+      <c r="L152">
+        <v>1.6</v>
+      </c>
+      <c r="M152">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="153" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C153" t="s">
+        <v>380</v>
+      </c>
+      <c r="D153">
+        <v>31</v>
+      </c>
+      <c r="E153">
+        <v>25</v>
+      </c>
+      <c r="F153">
+        <v>25</v>
+      </c>
+      <c r="G153">
+        <v>20</v>
+      </c>
+      <c r="H153">
+        <v>11</v>
+      </c>
+      <c r="I153">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J153">
+        <v>1.8</v>
+      </c>
+      <c r="K153">
+        <v>1.8</v>
+      </c>
+      <c r="L153">
+        <v>1.5</v>
+      </c>
+      <c r="M153">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="154" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C154" t="s">
+        <v>381</v>
+      </c>
+      <c r="D154">
+        <v>34</v>
+      </c>
+      <c r="E154">
+        <v>36</v>
+      </c>
+      <c r="F154">
+        <v>44</v>
+      </c>
+      <c r="G154">
+        <v>24</v>
+      </c>
+      <c r="H154">
+        <v>18</v>
+      </c>
+      <c r="I154">
+        <v>2.6</v>
+      </c>
+      <c r="J154">
+        <v>2.8</v>
+      </c>
+      <c r="K154">
+        <v>3.3</v>
+      </c>
+      <c r="L154">
+        <v>1.8</v>
+      </c>
+      <c r="M154">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="155" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C155" t="s">
+        <v>382</v>
+      </c>
+      <c r="D155">
+        <v>24</v>
+      </c>
+      <c r="E155">
+        <v>35</v>
+      </c>
+      <c r="F155">
+        <v>34</v>
+      </c>
+      <c r="G155">
+        <v>24</v>
+      </c>
+      <c r="H155">
+        <v>22</v>
+      </c>
+      <c r="I155">
+        <v>2.1</v>
+      </c>
+      <c r="J155">
+        <v>3.2</v>
+      </c>
+      <c r="K155">
+        <v>3.2</v>
+      </c>
+      <c r="L155">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C156" t="s">
+        <v>383</v>
+      </c>
+      <c r="D156">
+        <v>3</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156">
+        <v>2</v>
+      </c>
+      <c r="H156">
+        <v>3</v>
+      </c>
+      <c r="I156">
+        <v>0.8</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L156">
+        <v>0.5</v>
+      </c>
+      <c r="M156">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="157" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C157" t="s">
+        <v>384</v>
+      </c>
+      <c r="D157">
+        <v>27</v>
+      </c>
+      <c r="E157">
+        <v>19</v>
+      </c>
+      <c r="F157">
+        <v>16</v>
+      </c>
+      <c r="G157">
+        <v>6</v>
+      </c>
+      <c r="H157">
+        <v>4</v>
+      </c>
+      <c r="I157">
+        <v>2.9</v>
+      </c>
+      <c r="J157">
+        <v>2</v>
+      </c>
+      <c r="K157">
+        <v>1.7</v>
+      </c>
+      <c r="L157">
+        <v>0.7</v>
+      </c>
+      <c r="M157">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="158" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C158" t="s">
+        <v>375</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+      <c r="E158">
+        <v>9</v>
+      </c>
+      <c r="F158">
+        <v>6</v>
+      </c>
+      <c r="G158">
+        <v>8</v>
+      </c>
+      <c r="H158">
+        <v>5</v>
+      </c>
+      <c r="I158">
+        <v>0.5</v>
+      </c>
+      <c r="J158">
+        <v>1.2</v>
+      </c>
+      <c r="K158">
+        <v>0.8</v>
+      </c>
+      <c r="L158">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M158">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="159" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C159" t="s">
+        <v>385</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159">
+        <v>2</v>
+      </c>
+      <c r="F159">
+        <v>3</v>
+      </c>
+      <c r="G159">
+        <v>10</v>
+      </c>
+      <c r="H159">
+        <v>8</v>
+      </c>
+      <c r="I159">
+        <v>0.9</v>
+      </c>
+      <c r="J159">
+        <v>0.6</v>
+      </c>
+      <c r="K159">
+        <v>0.9</v>
+      </c>
+      <c r="L159">
+        <v>3.2</v>
+      </c>
+      <c r="M159">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="160" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C160" t="s">
+        <v>375</v>
+      </c>
+      <c r="D160">
+        <v>134</v>
+      </c>
+      <c r="E160">
+        <v>137</v>
+      </c>
+      <c r="F160">
+        <v>138</v>
+      </c>
+      <c r="G160">
+        <v>106</v>
+      </c>
+      <c r="H160">
+        <v>76</v>
+      </c>
+      <c r="I160">
+        <v>1.9</v>
+      </c>
+      <c r="J160">
+        <v>2</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>1.5</v>
+      </c>
+      <c r="M160">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C161" t="s">
+        <v>386</v>
+      </c>
+      <c r="D161">
+        <v>1242</v>
+      </c>
+      <c r="E161">
+        <v>1135</v>
+      </c>
+      <c r="F161">
+        <v>1071</v>
+      </c>
+      <c r="G161">
+        <v>1022</v>
+      </c>
+      <c r="H161">
+        <v>726</v>
+      </c>
+      <c r="I161">
+        <v>2.1</v>
+      </c>
+      <c r="J161">
+        <v>2</v>
+      </c>
+      <c r="K161">
+        <v>1.8</v>
+      </c>
+      <c r="L161">
+        <v>1.7</v>
+      </c>
+      <c r="M161">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C165" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C166" t="s">
+        <v>378</v>
+      </c>
+      <c r="D166">
+        <v>2006</v>
+      </c>
+      <c r="E166">
+        <v>2007</v>
+      </c>
+      <c r="F166">
+        <v>2008</v>
+      </c>
+      <c r="G166">
+        <v>2009</v>
+      </c>
+      <c r="H166">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C167" t="s">
+        <v>379</v>
+      </c>
+      <c r="D167">
+        <v>1.8</v>
+      </c>
+      <c r="E167">
+        <v>2.5</v>
+      </c>
+      <c r="F167">
+        <v>7</v>
+      </c>
+      <c r="G167">
+        <v>3.7</v>
+      </c>
+      <c r="H167">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C168" t="s">
+        <v>380</v>
+      </c>
+      <c r="D168">
+        <v>2.4</v>
+      </c>
+      <c r="E168">
+        <v>3.3</v>
+      </c>
+      <c r="F168">
+        <v>2.6</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+      <c r="H168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C169" t="s">
+        <v>381</v>
+      </c>
+      <c r="D169">
+        <v>5.8</v>
+      </c>
+      <c r="E169">
+        <v>7.8</v>
+      </c>
+      <c r="F169">
+        <v>7.8</v>
+      </c>
+      <c r="G169">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H169">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C170" t="s">
+        <v>382</v>
+      </c>
+      <c r="D170">
+        <v>5.5</v>
+      </c>
+      <c r="E170">
+        <v>5.7</v>
+      </c>
+      <c r="F170">
+        <v>12</v>
+      </c>
+      <c r="G170">
+        <v>9.1</v>
+      </c>
+      <c r="H170">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C171" t="s">
+        <v>383</v>
+      </c>
+      <c r="D171">
+        <v>10</v>
+      </c>
+      <c r="E171">
+        <v>7.3</v>
+      </c>
+      <c r="F171">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G171">
+        <v>9.1</v>
+      </c>
+      <c r="H171">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C172" t="s">
+        <v>384</v>
+      </c>
+      <c r="D172">
+        <v>1.9</v>
+      </c>
+      <c r="E172">
+        <v>6.7</v>
+      </c>
+      <c r="F172">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G172">
+        <v>12.8</v>
+      </c>
+      <c r="H172">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C173" t="s">
+        <v>375</v>
+      </c>
+      <c r="D173">
+        <v>3.5</v>
+      </c>
+      <c r="E173">
+        <v>2.1</v>
+      </c>
+      <c r="F173">
+        <v>7.8</v>
+      </c>
+      <c r="G173">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H173">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C174" t="s">
+        <v>385</v>
+      </c>
+      <c r="D174">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E174">
+        <v>0.7</v>
+      </c>
+      <c r="F174">
+        <v>3.2</v>
+      </c>
+      <c r="G174">
+        <v>1.2</v>
+      </c>
+      <c r="H174">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C175" t="s">
+        <v>375</v>
+      </c>
+      <c r="D175">
+        <v>3.9</v>
+      </c>
+      <c r="E175">
+        <v>4.8</v>
+      </c>
+      <c r="F175">
+        <v>7.4</v>
+      </c>
+      <c r="G175">
+        <v>7.5</v>
+      </c>
+      <c r="H175">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C176" t="s">
+        <v>386</v>
+      </c>
+      <c r="D176">
+        <v>3.3</v>
+      </c>
+      <c r="E176">
+        <v>3.1</v>
+      </c>
+      <c r="F176">
+        <v>4.5</v>
+      </c>
+      <c r="G176">
+        <v>4.8</v>
+      </c>
+      <c r="H176">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C178" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C179" t="s">
+        <v>378</v>
+      </c>
+      <c r="D179">
+        <v>2006</v>
+      </c>
+      <c r="E179">
+        <v>2007</v>
+      </c>
+      <c r="F179">
+        <v>2008</v>
+      </c>
+      <c r="G179">
+        <v>2009</v>
+      </c>
+      <c r="H179">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C180" t="s">
+        <v>379</v>
+      </c>
+      <c r="D180">
+        <v>2.1</v>
+      </c>
+      <c r="E180">
+        <v>3.8</v>
+      </c>
+      <c r="F180">
+        <v>6.1</v>
+      </c>
+      <c r="G180">
+        <v>3.3</v>
+      </c>
+      <c r="H180">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C181" t="s">
+        <v>380</v>
+      </c>
+      <c r="D181">
+        <v>6</v>
+      </c>
+      <c r="E181">
+        <v>2.7</v>
+      </c>
+      <c r="F181">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G181">
+        <v>3.3</v>
+      </c>
+      <c r="H181">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C182" t="s">
+        <v>381</v>
+      </c>
+      <c r="D182">
+        <v>6.2</v>
+      </c>
+      <c r="E182">
+        <v>6.2</v>
+      </c>
+      <c r="F182">
+        <v>6.4</v>
+      </c>
+      <c r="G182">
+        <v>9.5</v>
+      </c>
+      <c r="H182">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C183" t="s">
+        <v>382</v>
+      </c>
+      <c r="D183">
+        <v>7.6</v>
+      </c>
+      <c r="E183">
+        <v>7.4</v>
+      </c>
+      <c r="F183">
+        <v>11.7</v>
+      </c>
+      <c r="G183">
+        <v>11.4</v>
+      </c>
+      <c r="H183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C184" t="s">
+        <v>383</v>
+      </c>
+      <c r="D184">
+        <v>17</v>
+      </c>
+      <c r="E184">
+        <v>12.5</v>
+      </c>
+      <c r="F184">
+        <v>14.6</v>
+      </c>
+      <c r="G184">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H184">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C185" t="s">
+        <v>384</v>
+      </c>
+      <c r="D185">
+        <v>5.5</v>
+      </c>
+      <c r="E185">
+        <v>4.3</v>
+      </c>
+      <c r="F185">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G185">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="H185">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C186" t="s">
+        <v>375</v>
+      </c>
+      <c r="D186">
+        <v>3.5</v>
+      </c>
+      <c r="E186">
+        <v>9</v>
+      </c>
+      <c r="F186">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G186">
+        <v>11.4</v>
+      </c>
+      <c r="H186">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C187" t="s">
+        <v>385</v>
+      </c>
+      <c r="D187">
+        <v>1.2</v>
+      </c>
+      <c r="E187">
+        <v>1.4</v>
+      </c>
+      <c r="F187">
+        <v>3</v>
+      </c>
+      <c r="G187">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H187">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C188" t="s">
+        <v>375</v>
+      </c>
+      <c r="D188">
+        <v>5.9</v>
+      </c>
+      <c r="E188">
+        <v>5.6</v>
+      </c>
+      <c r="F188">
+        <v>7.4</v>
+      </c>
+      <c r="G188">
+        <v>7.1</v>
+      </c>
+      <c r="H188">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C189" t="s">
+        <v>386</v>
+      </c>
+      <c r="D189">
+        <v>3.9</v>
+      </c>
+      <c r="E189">
+        <v>3.7</v>
+      </c>
+      <c r="F189">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G189">
+        <v>4.7</v>
+      </c>
+      <c r="H189">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C193" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C194" t="s">
+        <v>378</v>
+      </c>
+      <c r="D194">
+        <v>2006</v>
+      </c>
+      <c r="E194">
+        <v>2007</v>
+      </c>
+      <c r="F194">
+        <v>2008</v>
+      </c>
+      <c r="G194">
+        <v>2009</v>
+      </c>
+      <c r="H194">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C195" t="s">
+        <v>379</v>
+      </c>
+      <c r="D195">
+        <v>12.1</v>
+      </c>
+      <c r="E195">
+        <v>12.8</v>
+      </c>
+      <c r="F195">
+        <v>15.7</v>
+      </c>
+      <c r="G195">
+        <v>11.7</v>
+      </c>
+      <c r="H195">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C196" t="s">
+        <v>380</v>
+      </c>
+      <c r="D196">
+        <v>10.5</v>
+      </c>
+      <c r="E196">
+        <v>11</v>
+      </c>
+      <c r="F196">
+        <v>12.6</v>
+      </c>
+      <c r="G196">
+        <v>12.4</v>
+      </c>
+      <c r="H196">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C197" t="s">
+        <v>381</v>
+      </c>
+      <c r="D197">
+        <v>10.9</v>
+      </c>
+      <c r="E197">
+        <v>8.9</v>
+      </c>
+      <c r="F197">
+        <v>14.3</v>
+      </c>
+      <c r="G197">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H197">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="198" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C198" t="s">
+        <v>382</v>
+      </c>
+      <c r="D198">
+        <v>15.5</v>
+      </c>
+      <c r="E198">
+        <v>14.1</v>
+      </c>
+      <c r="F198">
+        <v>26.6</v>
+      </c>
+      <c r="G198">
+        <v>26.9</v>
+      </c>
+      <c r="H198">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C199" t="s">
+        <v>383</v>
+      </c>
+      <c r="D199">
+        <v>15.2</v>
+      </c>
+      <c r="E199">
+        <v>7.3</v>
+      </c>
+      <c r="F199">
+        <v>18</v>
+      </c>
+      <c r="G199">
+        <v>12.3</v>
+      </c>
+      <c r="H199">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="200" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C200" t="s">
+        <v>384</v>
+      </c>
+      <c r="D200">
+        <v>14.1</v>
+      </c>
+      <c r="E200">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F200">
+        <v>25.4</v>
+      </c>
+      <c r="G200">
+        <v>29.3</v>
+      </c>
+      <c r="H200">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="201" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C201" t="s">
+        <v>375</v>
+      </c>
+      <c r="D201">
+        <v>16</v>
+      </c>
+      <c r="E201">
+        <v>16.5</v>
+      </c>
+      <c r="F201">
+        <v>25.9</v>
+      </c>
+      <c r="G201">
+        <v>24.1</v>
+      </c>
+      <c r="H201">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="202" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C202" t="s">
+        <v>385</v>
+      </c>
+      <c r="D202">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E202">
+        <v>11</v>
+      </c>
+      <c r="F202">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G202">
+        <v>5.8</v>
+      </c>
+      <c r="H202">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="203" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C203" t="s">
+        <v>375</v>
+      </c>
+      <c r="D203">
+        <v>12.9</v>
+      </c>
+      <c r="E203">
+        <v>12.7</v>
+      </c>
+      <c r="F203">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G203">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="H203">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="204" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C204" t="s">
+        <v>386</v>
+      </c>
+      <c r="D204">
+        <v>14.3</v>
+      </c>
+      <c r="E204">
+        <v>14.9</v>
+      </c>
+      <c r="F204">
+        <v>18.7</v>
+      </c>
+      <c r="G204">
+        <v>17</v>
+      </c>
+      <c r="H204">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="206" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C206" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="207" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C207" t="s">
+        <v>378</v>
+      </c>
+      <c r="D207">
+        <v>2006</v>
+      </c>
+      <c r="E207">
+        <v>2007</v>
+      </c>
+      <c r="F207">
+        <v>2008</v>
+      </c>
+      <c r="G207">
+        <v>2009</v>
+      </c>
+      <c r="H207">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="208" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C208" t="s">
+        <v>379</v>
+      </c>
+      <c r="D208">
+        <v>20.5</v>
+      </c>
+      <c r="E208">
+        <v>15.9</v>
+      </c>
+      <c r="F208">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G208">
+        <v>11.3</v>
+      </c>
+      <c r="H208">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="209" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C209" t="s">
+        <v>380</v>
+      </c>
+      <c r="D209">
+        <v>27.6</v>
+      </c>
+      <c r="E209">
+        <v>18.7</v>
+      </c>
+      <c r="F209">
+        <v>21</v>
+      </c>
+      <c r="G209">
+        <v>29.6</v>
+      </c>
+      <c r="H209">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="210" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C210" t="s">
+        <v>381</v>
+      </c>
+      <c r="D210">
+        <v>19.5</v>
+      </c>
+      <c r="E210">
+        <v>25.5</v>
+      </c>
+      <c r="F210">
+        <v>25.2</v>
+      </c>
+      <c r="G210">
+        <v>18.8</v>
+      </c>
+      <c r="H210">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="211" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C211" t="s">
+        <v>382</v>
+      </c>
+      <c r="D211">
+        <v>20.8</v>
+      </c>
+      <c r="E211">
+        <v>23.7</v>
+      </c>
+      <c r="F211">
+        <v>29.4</v>
+      </c>
+      <c r="G211">
+        <v>25.1</v>
+      </c>
+      <c r="H211">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C212" t="s">
+        <v>383</v>
+      </c>
+      <c r="D212">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E212">
+        <v>10.7</v>
+      </c>
+      <c r="F212">
+        <v>20.2</v>
+      </c>
+      <c r="G212">
+        <v>9.4</v>
+      </c>
+      <c r="H212">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="213" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C213" t="s">
+        <v>384</v>
+      </c>
+      <c r="D213">
+        <v>16.5</v>
+      </c>
+      <c r="E213">
+        <v>15.9</v>
+      </c>
+      <c r="F213">
+        <v>22.2</v>
+      </c>
+      <c r="G213">
+        <v>22.4</v>
+      </c>
+      <c r="H213">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="214" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C214" t="s">
+        <v>375</v>
+      </c>
+      <c r="D214">
+        <v>24.1</v>
+      </c>
+      <c r="E214">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="F214">
+        <v>42.8</v>
+      </c>
+      <c r="G214">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H214">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="215" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C215" t="s">
+        <v>385</v>
+      </c>
+      <c r="D215">
+        <v>17.2</v>
+      </c>
+      <c r="E215">
+        <v>12.3</v>
+      </c>
+      <c r="F215">
+        <v>11.5</v>
+      </c>
+      <c r="G215">
+        <v>5.5</v>
+      </c>
+      <c r="H215">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="216" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C216" t="s">
+        <v>375</v>
+      </c>
+      <c r="D216">
+        <v>21.3</v>
+      </c>
+      <c r="E216">
+        <v>20.9</v>
+      </c>
+      <c r="F216">
+        <v>25.6</v>
+      </c>
+      <c r="G216">
+        <v>20.7</v>
+      </c>
+      <c r="H216">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="217" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C217" t="s">
+        <v>386</v>
+      </c>
+      <c r="D217">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E217">
+        <v>17.7</v>
+      </c>
+      <c r="F217">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G217">
+        <v>16.2</v>
+      </c>
+      <c r="H217">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="219" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C219" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="220" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C220" t="s">
+        <v>400</v>
+      </c>
+      <c r="D220">
+        <v>2006</v>
+      </c>
+      <c r="E220">
+        <v>2007</v>
+      </c>
+      <c r="F220">
+        <v>2008</v>
+      </c>
+      <c r="G220">
+        <v>2009</v>
+      </c>
+      <c r="H220">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="221" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C221" t="s">
+        <v>379</v>
+      </c>
+      <c r="D221">
+        <v>4</v>
+      </c>
+      <c r="E221">
+        <v>2.6</v>
+      </c>
+      <c r="F221">
+        <v>7</v>
+      </c>
+      <c r="G221">
+        <v>4</v>
+      </c>
+      <c r="H221">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="222" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C222" t="s">
+        <v>380</v>
+      </c>
+      <c r="D222">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E222">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F222">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G222">
+        <v>8.1</v>
+      </c>
+      <c r="H222">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="223" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C223" t="s">
+        <v>381</v>
+      </c>
+      <c r="D223">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E223">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F223">
+        <v>7.5</v>
+      </c>
+      <c r="G223">
+        <v>8</v>
+      </c>
+      <c r="H223">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C224" t="s">
+        <v>382</v>
+      </c>
+      <c r="D224">
+        <v>2.9</v>
+      </c>
+      <c r="E224">
+        <v>6.8</v>
+      </c>
+      <c r="F224">
+        <v>10.9</v>
+      </c>
+      <c r="G224">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="H224">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="225" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C225" t="s">
+        <v>383</v>
+      </c>
+      <c r="D225">
+        <v>7.2</v>
+      </c>
+      <c r="E225">
+        <v>3.3</v>
+      </c>
+      <c r="F225">
+        <v>2.8</v>
+      </c>
+      <c r="G225">
+        <v>6</v>
+      </c>
+      <c r="H225">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="226" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C226" t="s">
+        <v>384</v>
+      </c>
+      <c r="D226">
+        <v>1.9</v>
+      </c>
+      <c r="E226">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F226">
+        <v>6.1</v>
+      </c>
+      <c r="G226">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H226">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="227" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C227" t="s">
+        <v>375</v>
+      </c>
+      <c r="D227">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E227">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F227">
+        <v>5</v>
+      </c>
+      <c r="G227">
+        <v>7.1</v>
+      </c>
+      <c r="H227">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="228" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C228" t="s">
+        <v>385</v>
+      </c>
+      <c r="D228">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E228">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F228">
+        <v>7.9</v>
+      </c>
+      <c r="G228">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="H228">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="229" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C229" t="s">
+        <v>375</v>
+      </c>
+      <c r="D229">
+        <v>4</v>
+      </c>
+      <c r="E229">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F229">
+        <v>7.5</v>
+      </c>
+      <c r="G229">
+        <v>6.7</v>
+      </c>
+      <c r="H229">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C230" t="s">
+        <v>386</v>
+      </c>
+      <c r="D230">
+        <v>3.7</v>
+      </c>
+      <c r="E230">
+        <v>2.7</v>
+      </c>
+      <c r="F230">
+        <v>8.1</v>
+      </c>
+      <c r="G230">
+        <v>7.3</v>
+      </c>
+      <c r="H230">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="232" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C232" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="233" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D233" t="s">
+        <v>391</v>
+      </c>
+      <c r="I233" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="234" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D234">
+        <v>2006</v>
+      </c>
+      <c r="E234">
+        <v>2007</v>
+      </c>
+      <c r="F234">
+        <v>2008</v>
+      </c>
+      <c r="G234">
+        <v>2009</v>
+      </c>
+      <c r="H234">
+        <v>2011</v>
+      </c>
+      <c r="I234">
+        <v>2006</v>
+      </c>
+      <c r="J234">
+        <v>2007</v>
+      </c>
+      <c r="K234">
+        <v>2008</v>
+      </c>
+      <c r="L234">
+        <v>2009</v>
+      </c>
+      <c r="M234">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="235" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C235" t="s">
+        <v>379</v>
+      </c>
+      <c r="D235">
+        <v>41</v>
+      </c>
+      <c r="E235">
+        <v>40</v>
+      </c>
+      <c r="F235">
+        <v>49</v>
+      </c>
+      <c r="G235">
+        <v>34</v>
+      </c>
+      <c r="H235">
+        <v>32</v>
+      </c>
+      <c r="I235">
+        <v>5.4</v>
+      </c>
+      <c r="J235">
+        <v>5.3</v>
+      </c>
+      <c r="K235">
+        <v>6.4</v>
+      </c>
+      <c r="L235">
+        <v>4.5</v>
+      </c>
+      <c r="M235">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="236" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C236" t="s">
+        <v>380</v>
+      </c>
+      <c r="D236">
+        <v>129</v>
+      </c>
+      <c r="E236">
+        <v>130</v>
+      </c>
+      <c r="F236">
+        <v>115</v>
+      </c>
+      <c r="G236">
+        <v>118</v>
+      </c>
+      <c r="H236">
+        <v>76</v>
+      </c>
+      <c r="I236">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J236">
+        <v>9.4</v>
+      </c>
+      <c r="K236">
+        <v>8.4</v>
+      </c>
+      <c r="L236">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M236">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="237" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C237" t="s">
+        <v>381</v>
+      </c>
+      <c r="D237">
+        <v>75</v>
+      </c>
+      <c r="E237">
+        <v>92</v>
+      </c>
+      <c r="F237">
+        <v>98</v>
+      </c>
+      <c r="G237">
+        <v>70</v>
+      </c>
+      <c r="H237">
+        <v>73</v>
+      </c>
+      <c r="I237">
+        <v>5.7</v>
+      </c>
+      <c r="J237">
+        <v>7</v>
+      </c>
+      <c r="K237">
+        <v>7.4</v>
+      </c>
+      <c r="L237">
+        <v>5.2</v>
+      </c>
+      <c r="M237">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="238" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C238" t="s">
+        <v>382</v>
+      </c>
+      <c r="D238">
+        <v>71</v>
+      </c>
+      <c r="E238">
+        <v>78</v>
+      </c>
+      <c r="F238">
+        <v>78</v>
+      </c>
+      <c r="G238">
+        <v>60</v>
+      </c>
+      <c r="H238">
+        <v>72</v>
+      </c>
+      <c r="I238">
+        <v>6.3</v>
+      </c>
+      <c r="J238">
+        <v>7.1</v>
+      </c>
+      <c r="K238">
+        <v>7.3</v>
+      </c>
+      <c r="L238">
+        <v>5.6</v>
+      </c>
+      <c r="M238">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="239" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C239" t="s">
+        <v>383</v>
+      </c>
+      <c r="D239">
+        <v>23</v>
+      </c>
+      <c r="E239">
+        <v>37</v>
+      </c>
+      <c r="F239">
+        <v>27</v>
+      </c>
+      <c r="G239">
+        <v>9</v>
+      </c>
+      <c r="H239">
+        <v>8</v>
+      </c>
+      <c r="I239">
+        <v>5.9</v>
+      </c>
+      <c r="J239">
+        <v>10</v>
+      </c>
+      <c r="K239">
+        <v>7.4</v>
+      </c>
+      <c r="L239">
+        <v>2.5</v>
+      </c>
+      <c r="M239">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="240" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C240" t="s">
+        <v>384</v>
+      </c>
+      <c r="D240">
+        <v>54</v>
+      </c>
+      <c r="E240">
+        <v>55</v>
+      </c>
+      <c r="F240">
+        <v>67</v>
+      </c>
+      <c r="G240">
+        <v>37</v>
+      </c>
+      <c r="H240">
+        <v>29</v>
+      </c>
+      <c r="I240">
+        <v>5.7</v>
+      </c>
+      <c r="J240">
+        <v>5.9</v>
+      </c>
+      <c r="K240">
+        <v>7.2</v>
+      </c>
+      <c r="L240">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M240">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="241" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C241" t="s">
+        <v>375</v>
+      </c>
+      <c r="D241">
+        <v>51</v>
+      </c>
+      <c r="E241">
+        <v>35</v>
+      </c>
+      <c r="F241">
+        <v>49</v>
+      </c>
+      <c r="G241">
+        <v>39</v>
+      </c>
+      <c r="H241">
+        <v>24</v>
+      </c>
+      <c r="I241">
+        <v>6.7</v>
+      </c>
+      <c r="J241">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K241">
+        <v>6.6</v>
+      </c>
+      <c r="L241">
+        <v>5.4</v>
+      </c>
+      <c r="M241">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="242" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C242" t="s">
+        <v>385</v>
+      </c>
+      <c r="D242">
+        <v>19</v>
+      </c>
+      <c r="E242">
+        <v>23</v>
+      </c>
+      <c r="F242">
+        <v>19</v>
+      </c>
+      <c r="G242">
+        <v>9</v>
+      </c>
+      <c r="H242">
+        <v>18</v>
+      </c>
+      <c r="I242">
+        <v>5.4</v>
+      </c>
+      <c r="J242">
+        <v>6.8</v>
+      </c>
+      <c r="K242">
+        <v>5.8</v>
+      </c>
+      <c r="L242">
+        <v>2.8</v>
+      </c>
+      <c r="M242">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="243" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C243" t="s">
+        <v>375</v>
+      </c>
+      <c r="D243">
+        <v>463</v>
+      </c>
+      <c r="E243">
+        <v>490</v>
+      </c>
+      <c r="F243">
+        <v>502</v>
+      </c>
+      <c r="G243">
+        <v>376</v>
+      </c>
+      <c r="H243">
+        <v>332</v>
+      </c>
+      <c r="I243">
+        <v>6.6</v>
+      </c>
+      <c r="J243">
+        <v>7.1</v>
+      </c>
+      <c r="K243">
+        <v>7.3</v>
+      </c>
+      <c r="L243">
+        <v>5.5</v>
+      </c>
+      <c r="M243">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="244" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C244" t="s">
+        <v>386</v>
+      </c>
+      <c r="D244">
+        <v>3972</v>
+      </c>
+      <c r="E244">
+        <v>3999</v>
+      </c>
+      <c r="F244">
+        <v>3803</v>
+      </c>
+      <c r="G244">
+        <v>3203</v>
+      </c>
+      <c r="H244">
+        <v>2376</v>
+      </c>
+      <c r="I244">
+        <v>6.8</v>
+      </c>
+      <c r="J244">
+        <v>6.9</v>
+      </c>
+      <c r="K244">
+        <v>6.6</v>
+      </c>
+      <c r="L244">
+        <v>5.5</v>
+      </c>
+      <c r="M244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C246" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="247" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D247" t="s">
+        <v>391</v>
+      </c>
+      <c r="I247" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="248" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="D248">
+        <v>2006</v>
+      </c>
+      <c r="E248">
+        <v>2007</v>
+      </c>
+      <c r="F248">
+        <v>2008</v>
+      </c>
+      <c r="G248">
+        <v>2009</v>
+      </c>
+      <c r="H248">
+        <v>2011</v>
+      </c>
+      <c r="I248">
+        <v>2006</v>
+      </c>
+      <c r="J248">
+        <v>2007</v>
+      </c>
+      <c r="K248">
+        <v>2008</v>
+      </c>
+      <c r="L248">
+        <v>2009</v>
+      </c>
+      <c r="M248">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="249" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C249" t="s">
+        <v>379</v>
+      </c>
+      <c r="D249">
+        <v>6</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>5</v>
+      </c>
+      <c r="G249">
+        <v>4</v>
+      </c>
+      <c r="H249">
+        <v>0</v>
+      </c>
+      <c r="I249">
+        <v>0.8</v>
+      </c>
+      <c r="J249">
+        <v>0.1</v>
+      </c>
+      <c r="K249">
+        <v>0.6</v>
+      </c>
+      <c r="L249">
+        <v>0.5</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C250" t="s">
+        <v>380</v>
+      </c>
+      <c r="D250">
+        <v>26</v>
+      </c>
+      <c r="E250">
+        <v>26</v>
+      </c>
+      <c r="F250">
+        <v>38</v>
+      </c>
+      <c r="G250">
+        <v>22</v>
+      </c>
+      <c r="H250">
+        <v>16</v>
+      </c>
+      <c r="I250">
+        <v>1.3</v>
+      </c>
+      <c r="J250">
+        <v>1.3</v>
+      </c>
+      <c r="K250">
+        <v>1.9</v>
+      </c>
+      <c r="L250">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M250">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="251" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C251" t="s">
+        <v>381</v>
+      </c>
+      <c r="D251">
+        <v>21</v>
+      </c>
+      <c r="E251">
+        <v>37</v>
+      </c>
+      <c r="F251">
+        <v>46</v>
+      </c>
+      <c r="G251">
+        <v>43</v>
+      </c>
+      <c r="H251">
+        <v>11</v>
+      </c>
+      <c r="I251">
+        <v>2.6</v>
+      </c>
+      <c r="J251">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K251">
+        <v>5.8</v>
+      </c>
+      <c r="L251">
+        <v>5.4</v>
+      </c>
+      <c r="M251">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="252" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C252" t="s">
+        <v>382</v>
+      </c>
+      <c r="D252">
+        <v>34</v>
+      </c>
+      <c r="E252">
+        <v>33</v>
+      </c>
+      <c r="F252">
+        <v>55</v>
+      </c>
+      <c r="G252">
+        <v>22</v>
+      </c>
+      <c r="H252">
+        <v>41</v>
+      </c>
+      <c r="I252">
+        <v>3.8</v>
+      </c>
+      <c r="J252">
+        <v>3.7</v>
+      </c>
+      <c r="K252">
+        <v>6.1</v>
+      </c>
+      <c r="L252">
+        <v>2.4</v>
+      </c>
+      <c r="M252">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="253" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C253" t="s">
+        <v>383</v>
+      </c>
+      <c r="D253">
+        <v>3</v>
+      </c>
+      <c r="E253">
+        <v>12</v>
+      </c>
+      <c r="F253">
+        <v>3</v>
+      </c>
+      <c r="G253">
+        <v>8</v>
+      </c>
+      <c r="H253">
+        <v>3</v>
+      </c>
+      <c r="I253">
+        <v>0.3</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="K253">
+        <v>0.3</v>
+      </c>
+      <c r="L253">
+        <v>0.7</v>
+      </c>
+      <c r="M253">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="254" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C254" t="s">
+        <v>384</v>
+      </c>
+      <c r="D254">
+        <v>18</v>
+      </c>
+      <c r="E254">
+        <v>22</v>
+      </c>
+      <c r="F254">
+        <v>33</v>
+      </c>
+      <c r="G254">
+        <v>15</v>
+      </c>
+      <c r="H254">
+        <v>11</v>
+      </c>
+      <c r="I254">
+        <v>3.8</v>
+      </c>
+      <c r="J254">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K254">
+        <v>6.9</v>
+      </c>
+      <c r="L254">
+        <v>3.1</v>
+      </c>
+      <c r="M254">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="255" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C255" t="s">
+        <v>375</v>
+      </c>
+      <c r="D255">
+        <v>19</v>
+      </c>
+      <c r="E255">
+        <v>19</v>
+      </c>
+      <c r="F255">
+        <v>18</v>
+      </c>
+      <c r="G255">
+        <v>13</v>
+      </c>
+      <c r="H255">
+        <v>9</v>
+      </c>
+      <c r="I255">
+        <v>1.7</v>
+      </c>
+      <c r="J255">
+        <v>1.9</v>
+      </c>
+      <c r="K255">
+        <v>1.8</v>
+      </c>
+      <c r="L255">
+        <v>1.3</v>
+      </c>
+      <c r="M255">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="256" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C256" t="s">
+        <v>385</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256">
+        <v>3</v>
+      </c>
+      <c r="F256">
+        <v>5</v>
+      </c>
+      <c r="G256">
+        <v>2</v>
+      </c>
+      <c r="H256">
+        <v>6</v>
+      </c>
+      <c r="I256">
+        <v>0.1</v>
+      </c>
+      <c r="J256">
+        <v>0.5</v>
+      </c>
+      <c r="K256">
+        <v>0.7</v>
+      </c>
+      <c r="L256">
+        <v>0.3</v>
+      </c>
+      <c r="M256">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="257" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C257" t="s">
+        <v>375</v>
+      </c>
+      <c r="D257">
+        <v>128</v>
+      </c>
+      <c r="E257">
+        <v>153</v>
+      </c>
+      <c r="F257">
+        <v>203</v>
+      </c>
+      <c r="G257">
+        <v>129</v>
+      </c>
+      <c r="H257">
+        <v>97</v>
+      </c>
+      <c r="I257">
+        <v>1.6</v>
+      </c>
+      <c r="J257">
+        <v>1.9</v>
+      </c>
+      <c r="K257">
+        <v>2.6</v>
+      </c>
+      <c r="L257">
+        <v>1.6</v>
+      </c>
+      <c r="M257">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="258" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C258" t="s">
+        <v>386</v>
+      </c>
+      <c r="D258">
+        <v>967</v>
+      </c>
+      <c r="E258">
+        <v>970</v>
+      </c>
+      <c r="F258">
+        <v>900</v>
+      </c>
+      <c r="G258">
+        <v>849</v>
+      </c>
+      <c r="H258">
+        <v>556</v>
+      </c>
+      <c r="I258">
+        <v>0.7</v>
+      </c>
+      <c r="J258">
+        <v>0.7</v>
+      </c>
+      <c r="K258">
+        <v>0.7</v>
+      </c>
+      <c r="L258">
+        <v>0.6</v>
+      </c>
+      <c r="M258">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/Datasets.xlsx
+++ b/Datasets/Datasets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="410">
   <si>
     <t>;;% slachtofferschap;2006;2007;2008;2009;2011</t>
   </si>
@@ -1233,6 +1233,27 @@
   </si>
   <si>
     <t>meldingen kleine buitenbranden</t>
+  </si>
+  <si>
+    <t>Noord</t>
+  </si>
+  <si>
+    <t>Agniesebuurt</t>
+  </si>
+  <si>
+    <t>Provenierswijk</t>
+  </si>
+  <si>
+    <t>Bergpolder</t>
+  </si>
+  <si>
+    <t>Blijdorp</t>
+  </si>
+  <si>
+    <t>Liskwartier</t>
+  </si>
+  <si>
+    <t>Oude Noorden</t>
   </si>
 </sst>
 </file>
@@ -1550,10 +1571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N258"/>
+  <dimension ref="A1:AB258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="A262" sqref="A262"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="N132" sqref="N132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3887,7 +3908,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>331</v>
       </c>
@@ -3901,7 +3922,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>257</v>
       </c>
@@ -3921,27 +3942,36 @@
         <v>334</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="P104" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="P107" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C108" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R108" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C109" t="s">
         <v>378</v>
       </c>
@@ -3960,8 +3990,26 @@
       <c r="H109">
         <v>2011</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R109" t="s">
+        <v>378</v>
+      </c>
+      <c r="S109">
+        <v>2006</v>
+      </c>
+      <c r="T109">
+        <v>2007</v>
+      </c>
+      <c r="U109">
+        <v>2008</v>
+      </c>
+      <c r="V109">
+        <v>2009</v>
+      </c>
+      <c r="W109">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C110" t="s">
         <v>379</v>
       </c>
@@ -3980,8 +4028,26 @@
       <c r="H110">
         <v>12.3</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R110" t="s">
+        <v>404</v>
+      </c>
+      <c r="S110">
+        <v>30.2</v>
+      </c>
+      <c r="T110">
+        <v>21.5</v>
+      </c>
+      <c r="U110">
+        <v>27.8</v>
+      </c>
+      <c r="V110">
+        <v>24.4</v>
+      </c>
+      <c r="W110">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>380</v>
       </c>
@@ -4000,8 +4066,26 @@
       <c r="H111">
         <v>15.7</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R111" t="s">
+        <v>405</v>
+      </c>
+      <c r="S111">
+        <v>29.4</v>
+      </c>
+      <c r="T111">
+        <v>27</v>
+      </c>
+      <c r="U111">
+        <v>32.4</v>
+      </c>
+      <c r="V111">
+        <v>24</v>
+      </c>
+      <c r="W111">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C112" t="s">
         <v>381</v>
       </c>
@@ -4020,8 +4104,26 @@
       <c r="H112">
         <v>26.8</v>
       </c>
-    </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R112" t="s">
+        <v>406</v>
+      </c>
+      <c r="S112">
+        <v>25.7</v>
+      </c>
+      <c r="T112">
+        <v>23.5</v>
+      </c>
+      <c r="U112">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="V112">
+        <v>17.8</v>
+      </c>
+      <c r="W112">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="113" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C113" t="s">
         <v>382</v>
       </c>
@@ -4040,8 +4142,26 @@
       <c r="H113">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R113" t="s">
+        <v>407</v>
+      </c>
+      <c r="S113">
+        <v>23</v>
+      </c>
+      <c r="T113">
+        <v>22.7</v>
+      </c>
+      <c r="U113">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="V113">
+        <v>15.9</v>
+      </c>
+      <c r="W113">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="114" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C114" t="s">
         <v>383</v>
       </c>
@@ -4060,8 +4180,26 @@
       <c r="H114">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R114" t="s">
+        <v>408</v>
+      </c>
+      <c r="S114">
+        <v>21.8</v>
+      </c>
+      <c r="T114">
+        <v>23.6</v>
+      </c>
+      <c r="U114">
+        <v>22.3</v>
+      </c>
+      <c r="V114">
+        <v>22.7</v>
+      </c>
+      <c r="W114">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="115" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C115" t="s">
         <v>384</v>
       </c>
@@ -4080,8 +4218,26 @@
       <c r="H115">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R115" t="s">
+        <v>409</v>
+      </c>
+      <c r="S115">
+        <v>31.7</v>
+      </c>
+      <c r="T115">
+        <v>21.9</v>
+      </c>
+      <c r="U115">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="V115">
+        <v>26</v>
+      </c>
+      <c r="W115">
+        <v>24.8</v>
+      </c>
+    </row>
+    <row r="116" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C116" t="s">
         <v>375</v>
       </c>
@@ -4100,8 +4256,26 @@
       <c r="H116">
         <v>21</v>
       </c>
-    </row>
-    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R116" t="s">
+        <v>403</v>
+      </c>
+      <c r="S116">
+        <v>27.3</v>
+      </c>
+      <c r="T116">
+        <v>23</v>
+      </c>
+      <c r="U116">
+        <v>27.3</v>
+      </c>
+      <c r="V116">
+        <v>22.1</v>
+      </c>
+      <c r="W116">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="117" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C117" t="s">
         <v>385</v>
       </c>
@@ -4120,8 +4294,26 @@
       <c r="H117">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R117" t="s">
+        <v>386</v>
+      </c>
+      <c r="S117">
+        <v>18.7</v>
+      </c>
+      <c r="T117">
+        <v>18.2</v>
+      </c>
+      <c r="U117">
+        <v>20</v>
+      </c>
+      <c r="V117">
+        <v>18.5</v>
+      </c>
+      <c r="W117">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="118" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C118" t="s">
         <v>375</v>
       </c>
@@ -4141,7 +4333,7 @@
         <v>18.3</v>
       </c>
     </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C119" t="s">
         <v>386</v>
       </c>
@@ -4160,13 +4352,54 @@
       <c r="H119">
         <v>18.2</v>
       </c>
-    </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R119" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="120" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="R120" t="s">
+        <v>378</v>
+      </c>
+      <c r="S120">
+        <v>2006</v>
+      </c>
+      <c r="T120">
+        <v>2007</v>
+      </c>
+      <c r="U120">
+        <v>2008</v>
+      </c>
+      <c r="V120">
+        <v>2009</v>
+      </c>
+      <c r="W120">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="121" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C121" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R121" t="s">
+        <v>404</v>
+      </c>
+      <c r="S121">
+        <v>31</v>
+      </c>
+      <c r="T121">
+        <v>28.1</v>
+      </c>
+      <c r="U121">
+        <v>24</v>
+      </c>
+      <c r="V121">
+        <v>24.1</v>
+      </c>
+      <c r="W121">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="122" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C122" t="s">
         <v>378</v>
       </c>
@@ -4185,8 +4418,26 @@
       <c r="H122">
         <v>2011</v>
       </c>
-    </row>
-    <row r="123" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R122" t="s">
+        <v>405</v>
+      </c>
+      <c r="S122">
+        <v>22.1</v>
+      </c>
+      <c r="T122">
+        <v>20.3</v>
+      </c>
+      <c r="U122">
+        <v>15.6</v>
+      </c>
+      <c r="V122">
+        <v>14.1</v>
+      </c>
+      <c r="W122">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C123" t="s">
         <v>379</v>
       </c>
@@ -4205,8 +4456,26 @@
       <c r="H123">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R123" t="s">
+        <v>406</v>
+      </c>
+      <c r="S123">
+        <v>12</v>
+      </c>
+      <c r="T123">
+        <v>15</v>
+      </c>
+      <c r="U123">
+        <v>13.6</v>
+      </c>
+      <c r="V123">
+        <v>12.7</v>
+      </c>
+      <c r="W123">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="124" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C124" t="s">
         <v>380</v>
       </c>
@@ -4225,8 +4494,26 @@
       <c r="H124">
         <v>16.600000000000001</v>
       </c>
-    </row>
-    <row r="125" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R124" t="s">
+        <v>407</v>
+      </c>
+      <c r="S124">
+        <v>13.8</v>
+      </c>
+      <c r="T124">
+        <v>11.7</v>
+      </c>
+      <c r="U124">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="V124">
+        <v>10.8</v>
+      </c>
+      <c r="W124">
+        <v>15.7</v>
+      </c>
+    </row>
+    <row r="125" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C125" t="s">
         <v>381</v>
       </c>
@@ -4245,8 +4532,26 @@
       <c r="H125">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="126" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R125" t="s">
+        <v>408</v>
+      </c>
+      <c r="S125">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="T125">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="U125">
+        <v>14.6</v>
+      </c>
+      <c r="V125">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="W125">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="126" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C126" t="s">
         <v>382</v>
       </c>
@@ -4265,8 +4570,26 @@
       <c r="H126">
         <v>19.399999999999999</v>
       </c>
-    </row>
-    <row r="127" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R126" t="s">
+        <v>409</v>
+      </c>
+      <c r="S126">
+        <v>34.4</v>
+      </c>
+      <c r="T126">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="U126">
+        <v>24.7</v>
+      </c>
+      <c r="V126">
+        <v>20.2</v>
+      </c>
+      <c r="W126">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C127" t="s">
         <v>383</v>
       </c>
@@ -4285,8 +4608,26 @@
       <c r="H127">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="128" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R127" t="s">
+        <v>403</v>
+      </c>
+      <c r="S127">
+        <v>23.1</v>
+      </c>
+      <c r="T127">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="U127">
+        <v>17.8</v>
+      </c>
+      <c r="V127">
+        <v>16.5</v>
+      </c>
+      <c r="W127">
+        <v>15.8</v>
+      </c>
+    </row>
+    <row r="128" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C128" t="s">
         <v>384</v>
       </c>
@@ -4305,8 +4646,26 @@
       <c r="H128">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R128" t="s">
+        <v>386</v>
+      </c>
+      <c r="S128">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="T128">
+        <v>15.8</v>
+      </c>
+      <c r="U128">
+        <v>15.4</v>
+      </c>
+      <c r="V128">
+        <v>15.7</v>
+      </c>
+      <c r="W128">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C129" t="s">
         <v>375</v>
       </c>
@@ -4326,7 +4685,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C130" t="s">
         <v>385</v>
       </c>
@@ -4346,7 +4705,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C131" t="s">
         <v>375</v>
       </c>
@@ -4366,7 +4725,7 @@
         <v>17.2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C132" t="s">
         <v>386</v>
       </c>
@@ -4386,17 +4745,23 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="P134" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C136" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R136" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C137" t="s">
         <v>378</v>
       </c>
@@ -4415,8 +4780,26 @@
       <c r="H137">
         <v>2011</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R137" t="s">
+        <v>378</v>
+      </c>
+      <c r="S137">
+        <v>2006</v>
+      </c>
+      <c r="T137">
+        <v>2007</v>
+      </c>
+      <c r="U137">
+        <v>2008</v>
+      </c>
+      <c r="V137">
+        <v>2009</v>
+      </c>
+      <c r="W137">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C138" t="s">
         <v>379</v>
       </c>
@@ -4435,8 +4818,26 @@
       <c r="H138">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R138" t="s">
+        <v>404</v>
+      </c>
+      <c r="S138">
+        <v>10.8</v>
+      </c>
+      <c r="T138">
+        <v>5.8</v>
+      </c>
+      <c r="U138">
+        <v>14.4</v>
+      </c>
+      <c r="V138">
+        <v>12.4</v>
+      </c>
+      <c r="W138">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C139" t="s">
         <v>380</v>
       </c>
@@ -4455,8 +4856,26 @@
       <c r="H139">
         <v>10.199999999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R139" t="s">
+        <v>405</v>
+      </c>
+      <c r="S139">
+        <v>3.9</v>
+      </c>
+      <c r="T139">
+        <v>3.3</v>
+      </c>
+      <c r="U139">
+        <v>7.1</v>
+      </c>
+      <c r="V139">
+        <v>7.9</v>
+      </c>
+      <c r="W139">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C140" t="s">
         <v>381</v>
       </c>
@@ -4475,8 +4894,26 @@
       <c r="H140">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R140" t="s">
+        <v>406</v>
+      </c>
+      <c r="S140">
+        <v>8.6</v>
+      </c>
+      <c r="T140">
+        <v>5.2</v>
+      </c>
+      <c r="U140">
+        <v>8.9</v>
+      </c>
+      <c r="V140">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="W140">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C141" t="s">
         <v>382</v>
       </c>
@@ -4495,8 +4932,26 @@
       <c r="H141">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R141" t="s">
+        <v>407</v>
+      </c>
+      <c r="S141">
+        <v>1.7</v>
+      </c>
+      <c r="T141">
+        <v>2</v>
+      </c>
+      <c r="U141">
+        <v>1.8</v>
+      </c>
+      <c r="V141">
+        <v>3.2</v>
+      </c>
+      <c r="W141">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C142" t="s">
         <v>383</v>
       </c>
@@ -4515,8 +4970,26 @@
       <c r="H142">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R142" t="s">
+        <v>408</v>
+      </c>
+      <c r="S142">
+        <v>3.5</v>
+      </c>
+      <c r="T142">
+        <v>7.9</v>
+      </c>
+      <c r="U142">
+        <v>5.2</v>
+      </c>
+      <c r="V142">
+        <v>9.4</v>
+      </c>
+      <c r="W142">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C143" t="s">
         <v>384</v>
       </c>
@@ -4535,8 +5008,26 @@
       <c r="H143">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R143" t="s">
+        <v>409</v>
+      </c>
+      <c r="S143">
+        <v>17.3</v>
+      </c>
+      <c r="T143">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="U143">
+        <v>15.7</v>
+      </c>
+      <c r="V143">
+        <v>14.6</v>
+      </c>
+      <c r="W143">
+        <v>16.2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C144" t="s">
         <v>375</v>
       </c>
@@ -4555,8 +5046,26 @@
       <c r="H144">
         <v>16.8</v>
       </c>
-    </row>
-    <row r="145" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R144" t="s">
+        <v>403</v>
+      </c>
+      <c r="S144">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="T144">
+        <v>6.2</v>
+      </c>
+      <c r="U144">
+        <v>9.6</v>
+      </c>
+      <c r="V144">
+        <v>10.1</v>
+      </c>
+      <c r="W144">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="145" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C145" t="s">
         <v>385</v>
       </c>
@@ -4575,8 +5084,26 @@
       <c r="H145">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="146" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R145" t="s">
+        <v>386</v>
+      </c>
+      <c r="S145">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="T145">
+        <v>6.7</v>
+      </c>
+      <c r="U145">
+        <v>9.9</v>
+      </c>
+      <c r="V145">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="W145">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="146" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C146" t="s">
         <v>375</v>
       </c>
@@ -4596,7 +5123,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="147" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C147" t="s">
         <v>386</v>
       </c>
@@ -4615,21 +5142,98 @@
       <c r="H147">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="149" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R147" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="148" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="S148" t="s">
+        <v>391</v>
+      </c>
+      <c r="X148" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="149" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C149" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="150" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R149" t="s">
+        <v>378</v>
+      </c>
+      <c r="S149">
+        <v>2006</v>
+      </c>
+      <c r="T149">
+        <v>2007</v>
+      </c>
+      <c r="U149">
+        <v>2008</v>
+      </c>
+      <c r="V149">
+        <v>2009</v>
+      </c>
+      <c r="W149">
+        <v>2011</v>
+      </c>
+      <c r="X149">
+        <v>2006</v>
+      </c>
+      <c r="Y149">
+        <v>2007</v>
+      </c>
+      <c r="Z149">
+        <v>2008</v>
+      </c>
+      <c r="AA149">
+        <v>2009</v>
+      </c>
+      <c r="AB149">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="150" spans="3:28" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
         <v>391</v>
       </c>
       <c r="I150" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="151" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R150" t="s">
+        <v>404</v>
+      </c>
+      <c r="S150">
+        <v>21</v>
+      </c>
+      <c r="T150">
+        <v>14</v>
+      </c>
+      <c r="U150">
+        <v>17</v>
+      </c>
+      <c r="V150">
+        <v>15</v>
+      </c>
+      <c r="W150">
+        <v>12</v>
+      </c>
+      <c r="X150">
+        <v>5</v>
+      </c>
+      <c r="Y150">
+        <v>3.4</v>
+      </c>
+      <c r="Z150">
+        <v>4.2</v>
+      </c>
+      <c r="AA150">
+        <v>3.7</v>
+      </c>
+      <c r="AB150">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="151" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C151" t="s">
         <v>378</v>
       </c>
@@ -4663,8 +5267,41 @@
       <c r="M151">
         <v>2011</v>
       </c>
-    </row>
-    <row r="152" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R151" t="s">
+        <v>405</v>
+      </c>
+      <c r="S151">
+        <v>17</v>
+      </c>
+      <c r="T151">
+        <v>9</v>
+      </c>
+      <c r="U151">
+        <v>13</v>
+      </c>
+      <c r="V151">
+        <v>6</v>
+      </c>
+      <c r="W151">
+        <v>7</v>
+      </c>
+      <c r="X151">
+        <v>3.6</v>
+      </c>
+      <c r="Y151">
+        <v>2</v>
+      </c>
+      <c r="Z151">
+        <v>2.9</v>
+      </c>
+      <c r="AA151">
+        <v>1.3</v>
+      </c>
+      <c r="AB151">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="152" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C152" t="s">
         <v>379</v>
       </c>
@@ -4698,8 +5335,41 @@
       <c r="M152">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="153" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R152" t="s">
+        <v>406</v>
+      </c>
+      <c r="S152">
+        <v>31</v>
+      </c>
+      <c r="T152">
+        <v>35</v>
+      </c>
+      <c r="U152">
+        <v>33</v>
+      </c>
+      <c r="V152">
+        <v>23</v>
+      </c>
+      <c r="W152">
+        <v>17</v>
+      </c>
+      <c r="X152">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Y152">
+        <v>4.7</v>
+      </c>
+      <c r="Z152">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AA152">
+        <v>3.1</v>
+      </c>
+      <c r="AB152">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="153" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C153" t="s">
         <v>380</v>
       </c>
@@ -4733,8 +5403,41 @@
       <c r="M153">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="154" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R153" t="s">
+        <v>407</v>
+      </c>
+      <c r="S153">
+        <v>10</v>
+      </c>
+      <c r="T153">
+        <v>6</v>
+      </c>
+      <c r="U153">
+        <v>14</v>
+      </c>
+      <c r="V153">
+        <v>16</v>
+      </c>
+      <c r="W153">
+        <v>12</v>
+      </c>
+      <c r="X153">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y153">
+        <v>0.6</v>
+      </c>
+      <c r="Z153">
+        <v>1.5</v>
+      </c>
+      <c r="AA153">
+        <v>1.7</v>
+      </c>
+      <c r="AB153">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="154" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C154" t="s">
         <v>381</v>
       </c>
@@ -4768,8 +5471,41 @@
       <c r="M154">
         <v>1.3</v>
       </c>
-    </row>
-    <row r="155" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R154" t="s">
+        <v>408</v>
+      </c>
+      <c r="S154">
+        <v>8</v>
+      </c>
+      <c r="T154">
+        <v>10</v>
+      </c>
+      <c r="U154">
+        <v>4</v>
+      </c>
+      <c r="V154">
+        <v>13</v>
+      </c>
+      <c r="W154">
+        <v>7</v>
+      </c>
+      <c r="X154">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y154">
+        <v>1.4</v>
+      </c>
+      <c r="Z154">
+        <v>0.5</v>
+      </c>
+      <c r="AA154">
+        <v>1.8</v>
+      </c>
+      <c r="AB154">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="155" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C155" t="s">
         <v>382</v>
       </c>
@@ -4803,8 +5539,41 @@
       <c r="M155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R155" t="s">
+        <v>409</v>
+      </c>
+      <c r="S155">
+        <v>46</v>
+      </c>
+      <c r="T155">
+        <v>45</v>
+      </c>
+      <c r="U155">
+        <v>36</v>
+      </c>
+      <c r="V155">
+        <v>25</v>
+      </c>
+      <c r="W155">
+        <v>35</v>
+      </c>
+      <c r="X155">
+        <v>2.7</v>
+      </c>
+      <c r="Y155">
+        <v>2.7</v>
+      </c>
+      <c r="Z155">
+        <v>2.1</v>
+      </c>
+      <c r="AA155">
+        <v>1.5</v>
+      </c>
+      <c r="AB155">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="156" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C156" t="s">
         <v>383</v>
       </c>
@@ -4838,8 +5607,41 @@
       <c r="M156">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="157" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R156" t="s">
+        <v>403</v>
+      </c>
+      <c r="S156">
+        <v>133</v>
+      </c>
+      <c r="T156">
+        <v>119</v>
+      </c>
+      <c r="U156">
+        <v>117</v>
+      </c>
+      <c r="V156">
+        <v>98</v>
+      </c>
+      <c r="W156">
+        <v>90</v>
+      </c>
+      <c r="X156">
+        <v>2.7</v>
+      </c>
+      <c r="Y156">
+        <v>2.4</v>
+      </c>
+      <c r="Z156">
+        <v>2.4</v>
+      </c>
+      <c r="AA156">
+        <v>2</v>
+      </c>
+      <c r="AB156">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="157" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C157" t="s">
         <v>384</v>
       </c>
@@ -4873,8 +5675,41 @@
       <c r="M157">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="158" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R157" t="s">
+        <v>386</v>
+      </c>
+      <c r="S157">
+        <v>1242</v>
+      </c>
+      <c r="T157">
+        <v>1135</v>
+      </c>
+      <c r="U157">
+        <v>1071</v>
+      </c>
+      <c r="V157">
+        <v>1022</v>
+      </c>
+      <c r="W157">
+        <v>726</v>
+      </c>
+      <c r="X157">
+        <v>2.1</v>
+      </c>
+      <c r="Y157">
+        <v>2</v>
+      </c>
+      <c r="Z157">
+        <v>1.8</v>
+      </c>
+      <c r="AA157">
+        <v>1.7</v>
+      </c>
+      <c r="AB157">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="158" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C158" t="s">
         <v>375</v>
       </c>
@@ -4909,7 +5744,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="159" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="159" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C159" t="s">
         <v>385</v>
       </c>
@@ -4944,7 +5779,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="160" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C160" t="s">
         <v>375</v>
       </c>

--- a/Datasets/Datasets.xlsx
+++ b/Datasets/Datasets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="410">
   <si>
     <t>;;% slachtofferschap;2006;2007;2008;2009;2011</t>
   </si>
@@ -1573,8 +1573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="N132" sqref="N132"/>
+    <sheetView tabSelected="1" topLeftCell="A230" workbookViewId="0">
+      <selection activeCell="Q251" sqref="Q251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5814,7 +5814,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C161" t="s">
         <v>386</v>
       </c>
@@ -5849,17 +5849,23 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P163" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C165" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R165" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C166" t="s">
         <v>378</v>
       </c>
@@ -5878,8 +5884,26 @@
       <c r="H166">
         <v>2011</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R166" t="s">
+        <v>378</v>
+      </c>
+      <c r="S166">
+        <v>2006</v>
+      </c>
+      <c r="T166">
+        <v>2007</v>
+      </c>
+      <c r="U166">
+        <v>2008</v>
+      </c>
+      <c r="V166">
+        <v>2009</v>
+      </c>
+      <c r="W166">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C167" t="s">
         <v>379</v>
       </c>
@@ -5898,8 +5922,26 @@
       <c r="H167">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R167" t="s">
+        <v>404</v>
+      </c>
+      <c r="S167">
+        <v>3.9</v>
+      </c>
+      <c r="T167">
+        <v>1.4</v>
+      </c>
+      <c r="U167">
+        <v>4.7</v>
+      </c>
+      <c r="V167">
+        <v>5.2</v>
+      </c>
+      <c r="W167">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C168" t="s">
         <v>380</v>
       </c>
@@ -5918,8 +5960,26 @@
       <c r="H168">
         <v>6</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R168" t="s">
+        <v>405</v>
+      </c>
+      <c r="S168">
+        <v>1.6</v>
+      </c>
+      <c r="T168">
+        <v>3.3</v>
+      </c>
+      <c r="U168">
+        <v>2</v>
+      </c>
+      <c r="V168">
+        <v>1.7</v>
+      </c>
+      <c r="W168">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C169" t="s">
         <v>381</v>
       </c>
@@ -5938,8 +5998,26 @@
       <c r="H169">
         <v>12.7</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R169" t="s">
+        <v>406</v>
+      </c>
+      <c r="S169">
+        <v>1.7</v>
+      </c>
+      <c r="T169">
+        <v>1.3</v>
+      </c>
+      <c r="U169">
+        <v>1.8</v>
+      </c>
+      <c r="V169">
+        <v>1.9</v>
+      </c>
+      <c r="W169">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C170" t="s">
         <v>382</v>
       </c>
@@ -5958,8 +6036,26 @@
       <c r="H170">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R170" t="s">
+        <v>407</v>
+      </c>
+      <c r="S170">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T170">
+        <v>1.3</v>
+      </c>
+      <c r="U170">
+        <v>1.3</v>
+      </c>
+      <c r="V170">
+        <v>0.4</v>
+      </c>
+      <c r="W170">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C171" t="s">
         <v>383</v>
       </c>
@@ -5978,8 +6074,26 @@
       <c r="H171">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R171" t="s">
+        <v>408</v>
+      </c>
+      <c r="S171">
+        <v>0.6</v>
+      </c>
+      <c r="T171">
+        <v>1.3</v>
+      </c>
+      <c r="U171">
+        <v>3</v>
+      </c>
+      <c r="V171">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W171">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C172" t="s">
         <v>384</v>
       </c>
@@ -5998,8 +6112,26 @@
       <c r="H172">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R172" t="s">
+        <v>409</v>
+      </c>
+      <c r="S172">
+        <v>6.3</v>
+      </c>
+      <c r="T172">
+        <v>2.5</v>
+      </c>
+      <c r="U172">
+        <v>7.3</v>
+      </c>
+      <c r="V172">
+        <v>10.4</v>
+      </c>
+      <c r="W172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>375</v>
       </c>
@@ -6018,8 +6150,26 @@
       <c r="H173">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R173" t="s">
+        <v>403</v>
+      </c>
+      <c r="S173">
+        <v>3.1</v>
+      </c>
+      <c r="T173">
+        <v>1.9</v>
+      </c>
+      <c r="U173">
+        <v>4</v>
+      </c>
+      <c r="V173">
+        <v>4.8</v>
+      </c>
+      <c r="W173">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>385</v>
       </c>
@@ -6038,8 +6188,26 @@
       <c r="H174">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="R174" t="s">
+        <v>386</v>
+      </c>
+      <c r="S174">
+        <v>3.3</v>
+      </c>
+      <c r="T174">
+        <v>3.1</v>
+      </c>
+      <c r="U174">
+        <v>4.5</v>
+      </c>
+      <c r="V174">
+        <v>4.8</v>
+      </c>
+      <c r="W174">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C175" t="s">
         <v>375</v>
       </c>
@@ -6059,7 +6227,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C176" t="s">
         <v>386</v>
       </c>
@@ -6078,13 +6246,54 @@
       <c r="H176">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R176" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="R177" t="s">
+        <v>378</v>
+      </c>
+      <c r="S177">
+        <v>2006</v>
+      </c>
+      <c r="T177">
+        <v>2007</v>
+      </c>
+      <c r="U177">
+        <v>2008</v>
+      </c>
+      <c r="V177">
+        <v>2009</v>
+      </c>
+      <c r="W177">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C178" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R178" t="s">
+        <v>404</v>
+      </c>
+      <c r="S178">
+        <v>4</v>
+      </c>
+      <c r="T178">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="U178">
+        <v>5.7</v>
+      </c>
+      <c r="V178">
+        <v>6.2</v>
+      </c>
+      <c r="W178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C179" t="s">
         <v>378</v>
       </c>
@@ -6103,8 +6312,26 @@
       <c r="H179">
         <v>2011</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R179" t="s">
+        <v>405</v>
+      </c>
+      <c r="S179">
+        <v>1.6</v>
+      </c>
+      <c r="T179">
+        <v>1.3</v>
+      </c>
+      <c r="U179">
+        <v>2</v>
+      </c>
+      <c r="V179">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W179">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C180" t="s">
         <v>379</v>
       </c>
@@ -6123,8 +6350,26 @@
       <c r="H180">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R180" t="s">
+        <v>406</v>
+      </c>
+      <c r="S180">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T180">
+        <v>1.9</v>
+      </c>
+      <c r="U180">
+        <v>2</v>
+      </c>
+      <c r="V180">
+        <v>2.4</v>
+      </c>
+      <c r="W180">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C181" t="s">
         <v>380</v>
       </c>
@@ -6143,8 +6388,26 @@
       <c r="H181">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R181" t="s">
+        <v>407</v>
+      </c>
+      <c r="S181">
+        <v>0</v>
+      </c>
+      <c r="T181">
+        <v>1.5</v>
+      </c>
+      <c r="U181">
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <v>0.8</v>
+      </c>
+      <c r="W181">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C182" t="s">
         <v>381</v>
       </c>
@@ -6163,8 +6426,26 @@
       <c r="H182">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R182" t="s">
+        <v>408</v>
+      </c>
+      <c r="S182">
+        <v>2.9</v>
+      </c>
+      <c r="T182">
+        <v>0.7</v>
+      </c>
+      <c r="U182">
+        <v>1.6</v>
+      </c>
+      <c r="V182">
+        <v>3.1</v>
+      </c>
+      <c r="W182">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C183" t="s">
         <v>382</v>
       </c>
@@ -6183,8 +6464,26 @@
       <c r="H183">
         <v>10</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R183" t="s">
+        <v>409</v>
+      </c>
+      <c r="S183">
+        <v>11</v>
+      </c>
+      <c r="T183">
+        <v>2.4</v>
+      </c>
+      <c r="U183">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="V183">
+        <v>8.5</v>
+      </c>
+      <c r="W183">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C184" t="s">
         <v>383</v>
       </c>
@@ -6203,8 +6502,26 @@
       <c r="H184">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R184" t="s">
+        <v>403</v>
+      </c>
+      <c r="S184">
+        <v>4.7</v>
+      </c>
+      <c r="T184">
+        <v>2</v>
+      </c>
+      <c r="U184">
+        <v>2.7</v>
+      </c>
+      <c r="V184">
+        <v>4.8</v>
+      </c>
+      <c r="W184">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C185" t="s">
         <v>384</v>
       </c>
@@ -6223,8 +6540,26 @@
       <c r="H185">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="R185" t="s">
+        <v>386</v>
+      </c>
+      <c r="S185">
+        <v>3.9</v>
+      </c>
+      <c r="T185">
+        <v>3.7</v>
+      </c>
+      <c r="U185">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="V185">
+        <v>4.7</v>
+      </c>
+      <c r="W185">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C186" t="s">
         <v>375</v>
       </c>
@@ -6244,7 +6579,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C187" t="s">
         <v>385</v>
       </c>
@@ -6264,7 +6599,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C188" t="s">
         <v>375</v>
       </c>
@@ -6284,7 +6619,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C189" t="s">
         <v>386</v>
       </c>
@@ -6304,17 +6639,23 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="193" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="P191" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="193" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C193" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="194" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R193" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="194" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C194" t="s">
         <v>378</v>
       </c>
@@ -6333,8 +6674,26 @@
       <c r="H194">
         <v>2011</v>
       </c>
-    </row>
-    <row r="195" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R194" t="s">
+        <v>378</v>
+      </c>
+      <c r="S194">
+        <v>2006</v>
+      </c>
+      <c r="T194">
+        <v>2007</v>
+      </c>
+      <c r="U194">
+        <v>2008</v>
+      </c>
+      <c r="V194">
+        <v>2009</v>
+      </c>
+      <c r="W194">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="195" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C195" t="s">
         <v>379</v>
       </c>
@@ -6353,8 +6712,26 @@
       <c r="H195">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="196" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R195" t="s">
+        <v>404</v>
+      </c>
+      <c r="S195">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="T195">
+        <v>31.4</v>
+      </c>
+      <c r="U195">
+        <v>35.9</v>
+      </c>
+      <c r="V195">
+        <v>24.3</v>
+      </c>
+      <c r="W195">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="196" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C196" t="s">
         <v>380</v>
       </c>
@@ -6373,8 +6750,26 @@
       <c r="H196">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="197" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R196" t="s">
+        <v>405</v>
+      </c>
+      <c r="S196">
+        <v>22.4</v>
+      </c>
+      <c r="T196">
+        <v>25.8</v>
+      </c>
+      <c r="U196">
+        <v>23.6</v>
+      </c>
+      <c r="V196">
+        <v>19.7</v>
+      </c>
+      <c r="W196">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="197" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C197" t="s">
         <v>381</v>
       </c>
@@ -6393,8 +6788,26 @@
       <c r="H197">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="198" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R197" t="s">
+        <v>406</v>
+      </c>
+      <c r="S197">
+        <v>14.8</v>
+      </c>
+      <c r="T197">
+        <v>21</v>
+      </c>
+      <c r="U197">
+        <v>16.8</v>
+      </c>
+      <c r="V197">
+        <v>11.9</v>
+      </c>
+      <c r="W197">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="198" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C198" t="s">
         <v>382</v>
       </c>
@@ -6413,8 +6826,26 @@
       <c r="H198">
         <v>18</v>
       </c>
-    </row>
-    <row r="199" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R198" t="s">
+        <v>407</v>
+      </c>
+      <c r="S198">
+        <v>15.6</v>
+      </c>
+      <c r="T198">
+        <v>12.4</v>
+      </c>
+      <c r="U198">
+        <v>10.4</v>
+      </c>
+      <c r="V198">
+        <v>9.1</v>
+      </c>
+      <c r="W198">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="199" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C199" t="s">
         <v>383</v>
       </c>
@@ -6433,8 +6864,26 @@
       <c r="H199">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="200" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R199" t="s">
+        <v>408</v>
+      </c>
+      <c r="S199">
+        <v>23.3</v>
+      </c>
+      <c r="T199">
+        <v>20.9</v>
+      </c>
+      <c r="U199">
+        <v>17.3</v>
+      </c>
+      <c r="V199">
+        <v>16.5</v>
+      </c>
+      <c r="W199">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="200" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
         <v>384</v>
       </c>
@@ -6453,8 +6902,26 @@
       <c r="H200">
         <v>18.3</v>
       </c>
-    </row>
-    <row r="201" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R200" t="s">
+        <v>409</v>
+      </c>
+      <c r="S200">
+        <v>25.4</v>
+      </c>
+      <c r="T200">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="U200">
+        <v>22.9</v>
+      </c>
+      <c r="V200">
+        <v>23</v>
+      </c>
+      <c r="W200">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="201" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
         <v>375</v>
       </c>
@@ -6473,8 +6940,26 @@
       <c r="H201">
         <v>26.7</v>
       </c>
-    </row>
-    <row r="202" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R201" t="s">
+        <v>403</v>
+      </c>
+      <c r="S201">
+        <v>22.1</v>
+      </c>
+      <c r="T201">
+        <v>20</v>
+      </c>
+      <c r="U201">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="V201">
+        <v>17.5</v>
+      </c>
+      <c r="W201">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="202" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C202" t="s">
         <v>385</v>
       </c>
@@ -6493,8 +6978,26 @@
       <c r="H202">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="203" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R202" t="s">
+        <v>386</v>
+      </c>
+      <c r="S202">
+        <v>14.3</v>
+      </c>
+      <c r="T202">
+        <v>14.9</v>
+      </c>
+      <c r="U202">
+        <v>18.7</v>
+      </c>
+      <c r="V202">
+        <v>17</v>
+      </c>
+      <c r="W202">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="203" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C203" t="s">
         <v>375</v>
       </c>
@@ -6514,7 +7017,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="204" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C204" t="s">
         <v>386</v>
       </c>
@@ -6533,13 +7036,54 @@
       <c r="H204">
         <v>13.9</v>
       </c>
-    </row>
-    <row r="206" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R204" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="205" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="R205" t="s">
+        <v>378</v>
+      </c>
+      <c r="S205">
+        <v>2006</v>
+      </c>
+      <c r="T205">
+        <v>2007</v>
+      </c>
+      <c r="U205">
+        <v>2008</v>
+      </c>
+      <c r="V205">
+        <v>2009</v>
+      </c>
+      <c r="W205">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="206" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C206" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="207" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R206" t="s">
+        <v>404</v>
+      </c>
+      <c r="S206">
+        <v>18</v>
+      </c>
+      <c r="T206">
+        <v>13.6</v>
+      </c>
+      <c r="U206">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="V206">
+        <v>15</v>
+      </c>
+      <c r="W206">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="207" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C207" t="s">
         <v>378</v>
       </c>
@@ -6558,8 +7102,26 @@
       <c r="H207">
         <v>2011</v>
       </c>
-    </row>
-    <row r="208" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R207" t="s">
+        <v>405</v>
+      </c>
+      <c r="S207">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="T207">
+        <v>8.5</v>
+      </c>
+      <c r="U207">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="V207">
+        <v>3.9</v>
+      </c>
+      <c r="W207">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="208" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C208" t="s">
         <v>379</v>
       </c>
@@ -6578,8 +7140,26 @@
       <c r="H208">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="209" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R208" t="s">
+        <v>406</v>
+      </c>
+      <c r="S208">
+        <v>6.3</v>
+      </c>
+      <c r="T208">
+        <v>5.2</v>
+      </c>
+      <c r="U208">
+        <v>3.5</v>
+      </c>
+      <c r="V208">
+        <v>7.2</v>
+      </c>
+      <c r="W208">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="209" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C209" t="s">
         <v>380</v>
       </c>
@@ -6598,8 +7178,26 @@
       <c r="H209">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="210" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R209" t="s">
+        <v>407</v>
+      </c>
+      <c r="S209">
+        <v>13.7</v>
+      </c>
+      <c r="T209">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U209">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="V209">
+        <v>3.2</v>
+      </c>
+      <c r="W209">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="210" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C210" t="s">
         <v>381</v>
       </c>
@@ -6618,8 +7216,26 @@
       <c r="H210">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="211" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R210" t="s">
+        <v>408</v>
+      </c>
+      <c r="S210">
+        <v>19.8</v>
+      </c>
+      <c r="T210">
+        <v>7.1</v>
+      </c>
+      <c r="U210">
+        <v>10</v>
+      </c>
+      <c r="V210">
+        <v>10</v>
+      </c>
+      <c r="W210">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="211" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C211" t="s">
         <v>382</v>
       </c>
@@ -6638,8 +7254,26 @@
       <c r="H211">
         <v>18</v>
       </c>
-    </row>
-    <row r="212" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R211" t="s">
+        <v>409</v>
+      </c>
+      <c r="S211">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="T211">
+        <v>12.6</v>
+      </c>
+      <c r="U211">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="V211">
+        <v>14.1</v>
+      </c>
+      <c r="W211">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="212" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C212" t="s">
         <v>383</v>
       </c>
@@ -6658,8 +7292,26 @@
       <c r="H212">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="213" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R212" t="s">
+        <v>403</v>
+      </c>
+      <c r="S212">
+        <v>14.2</v>
+      </c>
+      <c r="T212">
+        <v>8.9</v>
+      </c>
+      <c r="U212">
+        <v>10.3</v>
+      </c>
+      <c r="V212">
+        <v>9.6</v>
+      </c>
+      <c r="W212">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="213" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
         <v>384</v>
       </c>
@@ -6678,8 +7330,26 @@
       <c r="H213">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="214" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R213" t="s">
+        <v>386</v>
+      </c>
+      <c r="S213">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="T213">
+        <v>17.7</v>
+      </c>
+      <c r="U213">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="V213">
+        <v>16.2</v>
+      </c>
+      <c r="W213">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="214" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
         <v>375</v>
       </c>
@@ -6699,7 +7369,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="215" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C215" t="s">
         <v>385</v>
       </c>
@@ -6718,8 +7388,11 @@
       <c r="H215">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="216" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R215" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="216" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C216" t="s">
         <v>375</v>
       </c>
@@ -6738,8 +7411,26 @@
       <c r="H216">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="217" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R216" t="s">
+        <v>400</v>
+      </c>
+      <c r="S216">
+        <v>2006</v>
+      </c>
+      <c r="T216">
+        <v>2007</v>
+      </c>
+      <c r="U216">
+        <v>2008</v>
+      </c>
+      <c r="V216">
+        <v>2009</v>
+      </c>
+      <c r="W216">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="217" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C217" t="s">
         <v>386</v>
       </c>
@@ -6758,13 +7449,69 @@
       <c r="H217">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="219" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R217" t="s">
+        <v>404</v>
+      </c>
+      <c r="S217">
+        <v>10</v>
+      </c>
+      <c r="T217">
+        <v>2.8</v>
+      </c>
+      <c r="U217">
+        <v>11</v>
+      </c>
+      <c r="V217">
+        <v>10.3</v>
+      </c>
+      <c r="W217">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="218" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="R218" t="s">
+        <v>405</v>
+      </c>
+      <c r="S218">
+        <v>11.4</v>
+      </c>
+      <c r="T218">
+        <v>3.9</v>
+      </c>
+      <c r="U218">
+        <v>17.8</v>
+      </c>
+      <c r="V218">
+        <v>9.4</v>
+      </c>
+      <c r="W218">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="219" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C219" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="220" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R219" t="s">
+        <v>406</v>
+      </c>
+      <c r="S219">
+        <v>6.3</v>
+      </c>
+      <c r="T219">
+        <v>3.3</v>
+      </c>
+      <c r="U219">
+        <v>13.7</v>
+      </c>
+      <c r="V219">
+        <v>13.3</v>
+      </c>
+      <c r="W219">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="220" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C220" t="s">
         <v>400</v>
       </c>
@@ -6783,8 +7530,26 @@
       <c r="H220">
         <v>2011</v>
       </c>
-    </row>
-    <row r="221" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R220" t="s">
+        <v>407</v>
+      </c>
+      <c r="S220">
+        <v>6.7</v>
+      </c>
+      <c r="T220">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U220">
+        <v>5.8</v>
+      </c>
+      <c r="V220">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="W220">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
         <v>379</v>
       </c>
@@ -6803,8 +7568,26 @@
       <c r="H221">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="222" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R221" t="s">
+        <v>408</v>
+      </c>
+      <c r="S221">
+        <v>11.5</v>
+      </c>
+      <c r="T221">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="U221">
+        <v>13.4</v>
+      </c>
+      <c r="V221">
+        <v>12.9</v>
+      </c>
+      <c r="W221">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="222" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C222" t="s">
         <v>380</v>
       </c>
@@ -6823,8 +7606,26 @@
       <c r="H222">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="223" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R222" t="s">
+        <v>409</v>
+      </c>
+      <c r="S222">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="T222">
+        <v>3.4</v>
+      </c>
+      <c r="U222">
+        <v>13.1</v>
+      </c>
+      <c r="V222">
+        <v>10.5</v>
+      </c>
+      <c r="W222">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="223" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C223" t="s">
         <v>381</v>
       </c>
@@ -6843,8 +7644,26 @@
       <c r="H223">
         <v>6</v>
       </c>
-    </row>
-    <row r="224" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R223" t="s">
+        <v>403</v>
+      </c>
+      <c r="S223">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="T223">
+        <v>3.8</v>
+      </c>
+      <c r="U223">
+        <v>12.1</v>
+      </c>
+      <c r="V223">
+        <v>10.8</v>
+      </c>
+      <c r="W223">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="224" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C224" t="s">
         <v>382</v>
       </c>
@@ -6863,8 +7682,26 @@
       <c r="H224">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="225" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R224" t="s">
+        <v>386</v>
+      </c>
+      <c r="S224">
+        <v>3.7</v>
+      </c>
+      <c r="T224">
+        <v>2.7</v>
+      </c>
+      <c r="U224">
+        <v>8.1</v>
+      </c>
+      <c r="V224">
+        <v>7.3</v>
+      </c>
+      <c r="W224">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="225" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C225" t="s">
         <v>383</v>
       </c>
@@ -6884,7 +7721,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="226" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="226" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C226" t="s">
         <v>384</v>
       </c>
@@ -6903,8 +7740,11 @@
       <c r="H226">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="227" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R226" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="227" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C227" t="s">
         <v>375</v>
       </c>
@@ -6923,8 +7763,14 @@
       <c r="H227">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="228" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="S227" t="s">
+        <v>391</v>
+      </c>
+      <c r="X227" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="228" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C228" t="s">
         <v>385</v>
       </c>
@@ -6943,8 +7789,38 @@
       <c r="H228">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="229" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="S228">
+        <v>2006</v>
+      </c>
+      <c r="T228">
+        <v>2007</v>
+      </c>
+      <c r="U228">
+        <v>2008</v>
+      </c>
+      <c r="V228">
+        <v>2009</v>
+      </c>
+      <c r="W228">
+        <v>2011</v>
+      </c>
+      <c r="X228">
+        <v>2006</v>
+      </c>
+      <c r="Y228">
+        <v>2007</v>
+      </c>
+      <c r="Z228">
+        <v>2008</v>
+      </c>
+      <c r="AA228">
+        <v>2009</v>
+      </c>
+      <c r="AB228">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="229" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C229" t="s">
         <v>375</v>
       </c>
@@ -6963,8 +7839,41 @@
       <c r="H229">
         <v>7</v>
       </c>
-    </row>
-    <row r="230" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R229" t="s">
+        <v>404</v>
+      </c>
+      <c r="S229">
+        <v>56</v>
+      </c>
+      <c r="T229">
+        <v>51</v>
+      </c>
+      <c r="U229">
+        <v>29</v>
+      </c>
+      <c r="V229">
+        <v>46</v>
+      </c>
+      <c r="W229">
+        <v>38</v>
+      </c>
+      <c r="X229">
+        <v>13.5</v>
+      </c>
+      <c r="Y229">
+        <v>12.5</v>
+      </c>
+      <c r="Z229">
+        <v>7.1</v>
+      </c>
+      <c r="AA229">
+        <v>11.2</v>
+      </c>
+      <c r="AB229">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="230" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C230" t="s">
         <v>386</v>
       </c>
@@ -6983,21 +7892,155 @@
       <c r="H230">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="232" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R230" t="s">
+        <v>405</v>
+      </c>
+      <c r="S230">
+        <v>28</v>
+      </c>
+      <c r="T230">
+        <v>25</v>
+      </c>
+      <c r="U230">
+        <v>29</v>
+      </c>
+      <c r="V230">
+        <v>26</v>
+      </c>
+      <c r="W230">
+        <v>20</v>
+      </c>
+      <c r="X230">
+        <v>6</v>
+      </c>
+      <c r="Y230">
+        <v>5.5</v>
+      </c>
+      <c r="Z230">
+        <v>6.6</v>
+      </c>
+      <c r="AA230">
+        <v>5.8</v>
+      </c>
+      <c r="AB230">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="231" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="R231" t="s">
+        <v>406</v>
+      </c>
+      <c r="S231">
+        <v>24</v>
+      </c>
+      <c r="T231">
+        <v>22</v>
+      </c>
+      <c r="U231">
+        <v>34</v>
+      </c>
+      <c r="V231">
+        <v>24</v>
+      </c>
+      <c r="W231">
+        <v>22</v>
+      </c>
+      <c r="X231">
+        <v>3.1</v>
+      </c>
+      <c r="Y231">
+        <v>2.9</v>
+      </c>
+      <c r="Z231">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AA231">
+        <v>3.2</v>
+      </c>
+      <c r="AB231">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="232" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C232" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="233" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R232" t="s">
+        <v>407</v>
+      </c>
+      <c r="S232">
+        <v>47</v>
+      </c>
+      <c r="T232">
+        <v>43</v>
+      </c>
+      <c r="U232">
+        <v>30</v>
+      </c>
+      <c r="V232">
+        <v>34</v>
+      </c>
+      <c r="W232">
+        <v>24</v>
+      </c>
+      <c r="X232">
+        <v>5</v>
+      </c>
+      <c r="Y232">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z232">
+        <v>3.2</v>
+      </c>
+      <c r="AA232">
+        <v>3.6</v>
+      </c>
+      <c r="AB232">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="233" spans="3:28" x14ac:dyDescent="0.3">
       <c r="D233" t="s">
         <v>391</v>
       </c>
       <c r="I233" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="234" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R233" t="s">
+        <v>408</v>
+      </c>
+      <c r="S233">
+        <v>28</v>
+      </c>
+      <c r="T233">
+        <v>33</v>
+      </c>
+      <c r="U233">
+        <v>30</v>
+      </c>
+      <c r="V233">
+        <v>28</v>
+      </c>
+      <c r="W233">
+        <v>22</v>
+      </c>
+      <c r="X233">
+        <v>4</v>
+      </c>
+      <c r="Y233">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Z233">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AA233">
+        <v>3.8</v>
+      </c>
+      <c r="AB233">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="234" spans="3:28" x14ac:dyDescent="0.3">
       <c r="D234">
         <v>2006</v>
       </c>
@@ -7028,8 +8071,41 @@
       <c r="M234">
         <v>2011</v>
       </c>
-    </row>
-    <row r="235" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R234" t="s">
+        <v>409</v>
+      </c>
+      <c r="S234">
+        <v>126</v>
+      </c>
+      <c r="T234">
+        <v>140</v>
+      </c>
+      <c r="U234">
+        <v>100</v>
+      </c>
+      <c r="V234">
+        <v>95</v>
+      </c>
+      <c r="W234">
+        <v>66</v>
+      </c>
+      <c r="X234">
+        <v>7.4</v>
+      </c>
+      <c r="Y234">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Z234">
+        <v>6</v>
+      </c>
+      <c r="AA234">
+        <v>5.6</v>
+      </c>
+      <c r="AB234">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="235" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C235" t="s">
         <v>379</v>
       </c>
@@ -7063,8 +8139,41 @@
       <c r="M235">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="236" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R235" t="s">
+        <v>403</v>
+      </c>
+      <c r="S235">
+        <v>309</v>
+      </c>
+      <c r="T235">
+        <v>314</v>
+      </c>
+      <c r="U235">
+        <v>252</v>
+      </c>
+      <c r="V235">
+        <v>253</v>
+      </c>
+      <c r="W235">
+        <v>192</v>
+      </c>
+      <c r="X235">
+        <v>6.2</v>
+      </c>
+      <c r="Y235">
+        <v>6.3</v>
+      </c>
+      <c r="Z235">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AA235">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AB235">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="236" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
         <v>380</v>
       </c>
@@ -7098,8 +8207,41 @@
       <c r="M236">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="237" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R236" t="s">
+        <v>386</v>
+      </c>
+      <c r="S236">
+        <v>3972</v>
+      </c>
+      <c r="T236">
+        <v>3999</v>
+      </c>
+      <c r="U236">
+        <v>3803</v>
+      </c>
+      <c r="V236">
+        <v>3203</v>
+      </c>
+      <c r="W236">
+        <v>2376</v>
+      </c>
+      <c r="X236">
+        <v>6.8</v>
+      </c>
+      <c r="Y236">
+        <v>6.9</v>
+      </c>
+      <c r="Z236">
+        <v>6.6</v>
+      </c>
+      <c r="AA236">
+        <v>5.5</v>
+      </c>
+      <c r="AB236">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C237" t="s">
         <v>381</v>
       </c>
@@ -7134,7 +8276,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="238" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="238" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C238" t="s">
         <v>382</v>
       </c>
@@ -7168,8 +8310,11 @@
       <c r="M238">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="239" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R238" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="239" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C239" t="s">
         <v>383</v>
       </c>
@@ -7203,8 +8348,14 @@
       <c r="M239">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="240" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="S239" t="s">
+        <v>391</v>
+      </c>
+      <c r="X239" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="240" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C240" t="s">
         <v>384</v>
       </c>
@@ -7238,8 +8389,38 @@
       <c r="M240">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="241" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="S240">
+        <v>2006</v>
+      </c>
+      <c r="T240">
+        <v>2007</v>
+      </c>
+      <c r="U240">
+        <v>2008</v>
+      </c>
+      <c r="V240">
+        <v>2009</v>
+      </c>
+      <c r="W240">
+        <v>2011</v>
+      </c>
+      <c r="X240">
+        <v>2006</v>
+      </c>
+      <c r="Y240">
+        <v>2007</v>
+      </c>
+      <c r="Z240">
+        <v>2008</v>
+      </c>
+      <c r="AA240">
+        <v>2009</v>
+      </c>
+      <c r="AB240">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="241" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C241" t="s">
         <v>375</v>
       </c>
@@ -7273,8 +8454,41 @@
       <c r="M241">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="242" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R241" t="s">
+        <v>404</v>
+      </c>
+      <c r="S241">
+        <v>3</v>
+      </c>
+      <c r="T241">
+        <v>11</v>
+      </c>
+      <c r="U241">
+        <v>7</v>
+      </c>
+      <c r="V241">
+        <v>9</v>
+      </c>
+      <c r="W241">
+        <v>1</v>
+      </c>
+      <c r="X241">
+        <v>0.8</v>
+      </c>
+      <c r="Y241">
+        <v>3.1</v>
+      </c>
+      <c r="Z241">
+        <v>1.9</v>
+      </c>
+      <c r="AA241">
+        <v>2.5</v>
+      </c>
+      <c r="AB241">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="242" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C242" t="s">
         <v>385</v>
       </c>
@@ -7308,8 +8522,41 @@
       <c r="M242">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="243" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R242" t="s">
+        <v>405</v>
+      </c>
+      <c r="S242">
+        <v>1</v>
+      </c>
+      <c r="T242">
+        <v>1</v>
+      </c>
+      <c r="U242">
+        <v>3</v>
+      </c>
+      <c r="V242">
+        <v>7</v>
+      </c>
+      <c r="W242">
+        <v>3</v>
+      </c>
+      <c r="X242">
+        <v>0.3</v>
+      </c>
+      <c r="Y242">
+        <v>0.3</v>
+      </c>
+      <c r="Z242">
+        <v>1</v>
+      </c>
+      <c r="AA242">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AB242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C243" t="s">
         <v>375</v>
       </c>
@@ -7343,8 +8590,41 @@
       <c r="M243">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="244" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R243" t="s">
+        <v>406</v>
+      </c>
+      <c r="S243">
+        <v>3</v>
+      </c>
+      <c r="T243">
+        <v>4</v>
+      </c>
+      <c r="U243">
+        <v>2</v>
+      </c>
+      <c r="V243">
+        <v>6</v>
+      </c>
+      <c r="W243">
+        <v>2</v>
+      </c>
+      <c r="X243">
+        <v>0.7</v>
+      </c>
+      <c r="Y243">
+        <v>0.9</v>
+      </c>
+      <c r="Z243">
+        <v>0.4</v>
+      </c>
+      <c r="AA243">
+        <v>1.3</v>
+      </c>
+      <c r="AB243">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="244" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C244" t="s">
         <v>386</v>
       </c>
@@ -7378,21 +8658,155 @@
       <c r="M244">
         <v>4</v>
       </c>
-    </row>
-    <row r="246" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R244" t="s">
+        <v>407</v>
+      </c>
+      <c r="S244">
+        <v>13</v>
+      </c>
+      <c r="T244">
+        <v>8</v>
+      </c>
+      <c r="U244">
+        <v>5</v>
+      </c>
+      <c r="V244">
+        <v>9</v>
+      </c>
+      <c r="W244">
+        <v>11</v>
+      </c>
+      <c r="X244">
+        <v>0.8</v>
+      </c>
+      <c r="Y244">
+        <v>0.5</v>
+      </c>
+      <c r="Z244">
+        <v>0.3</v>
+      </c>
+      <c r="AA244">
+        <v>0.5</v>
+      </c>
+      <c r="AB244">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="245" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="R245" t="s">
+        <v>408</v>
+      </c>
+      <c r="S245">
+        <v>5</v>
+      </c>
+      <c r="T245">
+        <v>8</v>
+      </c>
+      <c r="U245">
+        <v>7</v>
+      </c>
+      <c r="V245">
+        <v>8</v>
+      </c>
+      <c r="W245">
+        <v>5</v>
+      </c>
+      <c r="X245">
+        <v>0.8</v>
+      </c>
+      <c r="Y245">
+        <v>1.4</v>
+      </c>
+      <c r="Z245">
+        <v>1.2</v>
+      </c>
+      <c r="AA245">
+        <v>1.4</v>
+      </c>
+      <c r="AB245">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="246" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C246" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="247" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R246" t="s">
+        <v>409</v>
+      </c>
+      <c r="S246">
+        <v>17</v>
+      </c>
+      <c r="T246">
+        <v>6</v>
+      </c>
+      <c r="U246">
+        <v>4</v>
+      </c>
+      <c r="V246">
+        <v>23</v>
+      </c>
+      <c r="W246">
+        <v>14</v>
+      </c>
+      <c r="X246">
+        <v>1.6</v>
+      </c>
+      <c r="Y246">
+        <v>0.6</v>
+      </c>
+      <c r="Z246">
+        <v>0.4</v>
+      </c>
+      <c r="AA246">
+        <v>2.1</v>
+      </c>
+      <c r="AB246">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="247" spans="3:28" x14ac:dyDescent="0.3">
       <c r="D247" t="s">
         <v>391</v>
       </c>
       <c r="I247" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="248" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R247" t="s">
+        <v>403</v>
+      </c>
+      <c r="S247">
+        <v>42</v>
+      </c>
+      <c r="T247">
+        <v>38</v>
+      </c>
+      <c r="U247">
+        <v>28</v>
+      </c>
+      <c r="V247">
+        <v>62</v>
+      </c>
+      <c r="W247">
+        <v>36</v>
+      </c>
+      <c r="X247">
+        <v>0.9</v>
+      </c>
+      <c r="Y247">
+        <v>0.9</v>
+      </c>
+      <c r="Z247">
+        <v>0.6</v>
+      </c>
+      <c r="AA247">
+        <v>1.4</v>
+      </c>
+      <c r="AB247">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="248" spans="3:28" x14ac:dyDescent="0.3">
       <c r="D248">
         <v>2006</v>
       </c>
@@ -7423,8 +8837,41 @@
       <c r="M248">
         <v>2011</v>
       </c>
-    </row>
-    <row r="249" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="R248" t="s">
+        <v>386</v>
+      </c>
+      <c r="S248">
+        <v>967</v>
+      </c>
+      <c r="T248">
+        <v>970</v>
+      </c>
+      <c r="U248">
+        <v>900</v>
+      </c>
+      <c r="V248">
+        <v>849</v>
+      </c>
+      <c r="W248">
+        <v>556</v>
+      </c>
+      <c r="X248">
+        <v>0.7</v>
+      </c>
+      <c r="Y248">
+        <v>0.7</v>
+      </c>
+      <c r="Z248">
+        <v>0.7</v>
+      </c>
+      <c r="AA248">
+        <v>0.6</v>
+      </c>
+      <c r="AB248">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="249" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C249" t="s">
         <v>379</v>
       </c>
@@ -7459,7 +8906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="250" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C250" t="s">
         <v>380</v>
       </c>
@@ -7494,7 +8941,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="251" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="251" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C251" t="s">
         <v>381</v>
       </c>
@@ -7529,7 +8976,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="252" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="252" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C252" t="s">
         <v>382</v>
       </c>
@@ -7564,7 +9011,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="253" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="253" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C253" t="s">
         <v>383</v>
       </c>
@@ -7599,7 +9046,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="254" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="254" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C254" t="s">
         <v>384</v>
       </c>
@@ -7634,7 +9081,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="255" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C255" t="s">
         <v>375</v>
       </c>
@@ -7669,7 +9116,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="256" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="256" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C256" t="s">
         <v>385</v>
       </c>
